--- a/GV/ListaKPIS.xlsx
+++ b/GV/ListaKPIS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C27F38A-74EA-4AD9-83EB-4EAEB1020B4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825ECFCC-AE34-468F-AF66-94F8F309C939}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="142">
   <si>
     <t>No.</t>
   </si>
@@ -465,12 +465,39 @@
   <si>
     <t>Días o Semanas</t>
   </si>
+  <si>
+    <t>Semanal</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>Corral</t>
+  </si>
+  <si>
+    <t>Camada</t>
+  </si>
+  <si>
+    <t>Granja</t>
+  </si>
+  <si>
+    <t>Corral / Granja</t>
+  </si>
+  <si>
+    <t>Actualización de KPI</t>
+  </si>
+  <si>
+    <t>Postura</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,6 +635,14 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1047,7 +1082,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1056,39 +1091,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1106,98 +1108,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1215,49 +1139,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1323,19 +1217,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1386,12 +1268,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1425,44 +1301,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1485,13 +1334,220 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1521,9 +1577,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1728108</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
+      <xdr:colOff>1712233</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>648607</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2401427" cy="509114"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1541,7 +1597,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3673929" y="1959428"/>
+              <a:off x="4077608" y="1839232"/>
               <a:ext cx="2401427" cy="509114"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1569,6 +1625,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1583,7 +1640,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1596,7 +1653,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1611,7 +1668,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1623,7 +1680,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1638,7 +1695,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1650,7 +1707,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1665,7 +1722,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1677,7 +1734,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1692,7 +1749,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1704,7 +1761,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1719,7 +1776,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1733,7 +1790,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1745,7 +1802,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1760,7 +1817,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1772,7 +1829,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1787,7 +1844,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1799,7 +1856,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1814,7 +1871,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1826,7 +1883,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1856,7 +1913,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3673929" y="1959428"/>
+              <a:off x="4077608" y="1839232"/>
               <a:ext cx="2401427" cy="509114"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1884,13 +1941,14 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-MX" sz="1600" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -1902,7 +1960,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -1914,7 +1972,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -1926,7 +1984,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -1938,7 +1996,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -1960,8 +2018,8 @@
       <xdr:rowOff>435428</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2743123" cy="250453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="111" name="CuadroTexto 110">
@@ -2003,6 +2061,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2015,7 +2074,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2027,7 +2086,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2039,7 +2098,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2051,7 +2110,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2063,7 +2122,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2075,7 +2134,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2099,7 +2158,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2113,7 +2172,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="111" name="CuadroTexto 110">
@@ -2207,8 +2266,8 @@
       <xdr:rowOff>97971</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3335913" cy="509114"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="112" name="CuadroTexto 111">
@@ -2250,6 +2309,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2264,7 +2324,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2277,7 +2337,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2292,7 +2352,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2306,7 +2366,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2321,7 +2381,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2333,7 +2393,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2348,7 +2408,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2360,7 +2420,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2375,7 +2435,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2387,7 +2447,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2402,7 +2462,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2414,7 +2474,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2429,7 +2489,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2441,7 +2501,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2456,7 +2516,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2468,7 +2528,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2491,7 +2551,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="112" name="CuadroTexto 111">
@@ -2592,8 +2652,8 @@
       <xdr:rowOff>621394</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2190856" cy="467564"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="113" name="CuadroTexto 112">
@@ -2635,6 +2695,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2649,7 +2710,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2662,7 +2723,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2674,7 +2735,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2686,7 +2747,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2698,7 +2759,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2710,7 +2771,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2724,7 +2785,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2736,7 +2797,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2748,7 +2809,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2760,7 +2821,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2772,7 +2833,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2784,7 +2845,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2796,7 +2857,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2812,7 +2873,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="113" name="CuadroTexto 112">
@@ -2882,8 +2943,8 @@
       <xdr:rowOff>256267</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5519653" cy="250453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="114" name="CuadroTexto 113">
@@ -2954,7 +3015,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2966,7 +3027,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2978,7 +3039,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2990,7 +3051,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3002,7 +3063,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3014,7 +3075,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3026,7 +3087,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3038,7 +3099,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3050,7 +3111,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3062,7 +3123,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3074,7 +3135,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3086,7 +3147,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3098,7 +3159,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3110,7 +3171,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3122,7 +3183,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3134,7 +3195,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3146,35 +3207,11 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑐𝑎</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="es-MX" sz="1600" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>𝑚𝑎</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="es-MX" sz="1600" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑑𝑎</m:t>
+                      <m:t>𝑐𝑎𝑚𝑎𝑑𝑎</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -3192,7 +3229,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="114" name="CuadroTexto 113">
@@ -3311,8 +3348,8 @@
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2581669" cy="510524"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="115" name="CuadroTexto 114">
@@ -3385,7 +3422,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3398,7 +3435,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3410,7 +3447,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3422,7 +3459,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3434,7 +3471,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3446,7 +3483,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3458,7 +3495,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3472,7 +3509,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3484,7 +3521,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3496,7 +3533,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3508,7 +3545,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3520,7 +3557,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3532,7 +3569,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3556,7 +3593,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="115" name="CuadroTexto 114">
@@ -3651,8 +3688,8 @@
       <xdr:rowOff>517072</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1949636" cy="509114"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="116" name="CuadroTexto 115">
@@ -3725,7 +3762,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3738,7 +3775,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3750,7 +3787,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3762,7 +3799,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3774,7 +3811,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3786,7 +3823,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3798,7 +3835,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3812,7 +3849,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3824,7 +3861,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3836,7 +3873,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3860,7 +3897,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="116" name="CuadroTexto 115">
@@ -3955,8 +3992,8 @@
       <xdr:rowOff>415018</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="998607" cy="509114"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="117" name="CuadroTexto 116">
@@ -4029,7 +4066,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4042,7 +4079,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4054,7 +4091,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4068,7 +4105,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4080,7 +4117,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4104,7 +4141,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="117" name="CuadroTexto 116">
@@ -4199,8 +4236,8 @@
       <xdr:rowOff>91168</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1555875" cy="510845"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="118" name="CuadroTexto 117">
@@ -4273,7 +4310,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4286,7 +4323,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4298,7 +4335,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4312,7 +4349,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4324,7 +4361,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4348,7 +4385,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="118" name="CuadroTexto 117">
@@ -4443,8 +4480,8 @@
       <xdr:rowOff>612775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1906997" cy="467692"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="120" name="CuadroTexto 119">
@@ -4517,7 +4554,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4530,7 +4567,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4542,7 +4579,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4554,7 +4591,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4566,7 +4603,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4578,7 +4615,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4592,7 +4629,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4604,7 +4641,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4616,7 +4653,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4628,7 +4665,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4652,7 +4689,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="120" name="CuadroTexto 119">
@@ -4747,8 +4784,8 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2371611" cy="467692"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="121" name="CuadroTexto 120">
@@ -4821,7 +4858,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4834,7 +4871,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4846,7 +4883,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4858,7 +4895,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4870,7 +4907,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4882,7 +4919,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4896,7 +4933,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4908,7 +4945,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4920,7 +4957,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4932,7 +4969,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4944,7 +4981,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4956,7 +4993,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4968,7 +5005,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4992,7 +5029,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="121" name="CuadroTexto 120">
@@ -5087,8 +5124,8 @@
       <xdr:rowOff>1266825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2417520" cy="483915"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="122" name="CuadroTexto 121">
@@ -5161,7 +5198,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5174,7 +5211,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5186,7 +5223,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5198,7 +5235,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5210,7 +5247,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5234,7 +5271,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5248,7 +5285,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5260,7 +5297,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5272,7 +5309,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5284,7 +5321,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5296,7 +5333,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5308,7 +5345,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5320,7 +5357,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5344,7 +5381,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="122" name="CuadroTexto 121">
@@ -5463,8 +5500,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3011274" cy="509114"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="123" name="CuadroTexto 122">
@@ -5537,7 +5574,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5550,7 +5587,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5562,7 +5599,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5574,7 +5611,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5586,7 +5623,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5598,7 +5635,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5610,7 +5647,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5622,7 +5659,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5634,7 +5671,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5648,7 +5685,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5660,7 +5697,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5672,7 +5709,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5696,7 +5733,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="123" name="CuadroTexto 122">
@@ -5791,8 +5828,8 @@
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2961388" cy="509114"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="124" name="CuadroTexto 123">
@@ -5865,7 +5902,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5878,7 +5915,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5890,7 +5927,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5902,7 +5939,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5914,7 +5951,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5926,7 +5963,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5938,7 +5975,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5976,7 +6013,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5988,7 +6025,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6000,7 +6037,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6024,7 +6061,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="124" name="CuadroTexto 123">
@@ -6155,8 +6192,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2722412" cy="509114"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="125" name="CuadroTexto 124">
@@ -6229,7 +6266,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6242,7 +6279,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6254,7 +6291,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6266,7 +6303,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6278,7 +6315,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6290,7 +6327,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6302,7 +6339,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6314,7 +6351,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6326,7 +6363,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6340,7 +6377,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6352,7 +6389,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6364,7 +6401,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6388,7 +6425,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="125" name="CuadroTexto 124">
@@ -6478,9 +6515,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1412875</xdr:colOff>
+      <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>396875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2940805" cy="509114"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -6498,7 +6535,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3778250" y="15525750"/>
+              <a:off x="3746500" y="22923500"/>
               <a:ext cx="2940805" cy="509114"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6557,7 +6594,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6570,7 +6607,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6582,7 +6619,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6594,7 +6631,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6606,7 +6643,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6618,7 +6655,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6630,7 +6667,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6642,7 +6679,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6654,7 +6691,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6668,7 +6705,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6680,7 +6717,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6692,7 +6729,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6704,7 +6741,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6716,7 +6753,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6728,7 +6765,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6740,7 +6777,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6752,7 +6789,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6790,7 +6827,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3778250" y="15525750"/>
+              <a:off x="3746500" y="22923500"/>
               <a:ext cx="2940805" cy="509114"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6841,7 +6878,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -6871,8 +6908,8 @@
       <xdr:rowOff>587375</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1738104" cy="507960"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="127" name="CuadroTexto 126">
@@ -6945,7 +6982,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6958,7 +6995,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6970,7 +7007,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6989,7 +7026,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7004,7 +7041,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7016,7 +7053,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7028,7 +7065,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7054,7 +7091,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="127" name="CuadroTexto 126">
@@ -7145,8 +7182,8 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1301750</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>746125</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3192990" cy="509114"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -7164,7 +7201,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3667125" y="18494375"/>
+              <a:off x="3667125" y="26336625"/>
               <a:ext cx="3192990" cy="509114"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7223,7 +7260,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7236,7 +7273,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7248,7 +7285,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7260,7 +7297,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7272,7 +7309,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7284,7 +7321,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7296,7 +7333,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7310,7 +7347,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7322,7 +7359,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7334,7 +7371,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7346,7 +7383,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7384,7 +7421,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3667125" y="18494375"/>
+              <a:off x="3667125" y="26336625"/>
               <a:ext cx="3192990" cy="509114"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7435,7 +7472,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -7465,8 +7502,8 @@
       <xdr:rowOff>454025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3982565" cy="507960"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="129" name="CuadroTexto 128">
@@ -7539,7 +7576,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7552,7 +7589,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7564,7 +7601,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7576,7 +7613,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7588,7 +7625,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7600,7 +7637,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7612,7 +7649,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7624,7 +7661,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7636,7 +7673,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7648,7 +7685,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7660,7 +7697,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7679,7 +7716,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7694,7 +7731,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7720,7 +7757,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="129" name="CuadroTexto 128">
@@ -7815,8 +7852,8 @@
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4038093" cy="507960"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="130" name="CuadroTexto 129">
@@ -7889,7 +7926,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7902,7 +7939,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7914,7 +7951,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7926,7 +7963,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7938,7 +7975,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7950,7 +7987,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7962,7 +7999,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7974,7 +8011,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7986,7 +8023,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7998,7 +8035,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8010,7 +8047,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8029,7 +8066,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8044,7 +8081,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8070,7 +8107,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="130" name="CuadroTexto 129">
@@ -8170,8 +8207,8 @@
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1641411" cy="403380"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -8213,6 +8250,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8227,7 +8265,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8240,7 +8278,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8252,7 +8290,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8264,7 +8302,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8278,7 +8316,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8290,7 +8328,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8302,7 +8340,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8314,7 +8352,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8342,7 +8380,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -8436,8 +8474,8 @@
       <xdr:rowOff>388144</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1581074" cy="446789"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="CuadroTexto 22">
@@ -8479,6 +8517,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8493,7 +8532,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8506,7 +8545,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8518,7 +8557,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8530,7 +8569,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8544,7 +8583,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8556,7 +8595,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8568,7 +8607,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8584,7 +8623,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="CuadroTexto 22">
@@ -8654,8 +8693,8 @@
       <xdr:rowOff>246062</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1539652" cy="409086"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="CuadroTexto 23">
@@ -8697,6 +8736,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8711,7 +8751,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8724,7 +8764,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8736,7 +8776,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8748,7 +8788,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8762,7 +8802,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8774,7 +8814,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8786,7 +8826,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8802,7 +8842,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="CuadroTexto 23">
@@ -8872,8 +8912,8 @@
       <xdr:rowOff>231775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1539652" cy="409086"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="CuadroTexto 24">
@@ -8915,6 +8955,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8929,7 +8970,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8942,7 +8983,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8954,7 +8995,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8966,7 +9007,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8978,7 +9019,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8992,7 +9033,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9004,7 +9045,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9016,7 +9057,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9032,7 +9073,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="CuadroTexto 24">
@@ -9102,8 +9143,8 @@
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1763495" cy="445315"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="CuadroTexto 25">
@@ -9145,6 +9186,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9159,7 +9201,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9172,7 +9214,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9184,7 +9226,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9196,7 +9238,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9210,7 +9252,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9222,7 +9264,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9234,7 +9276,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9246,7 +9288,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9262,7 +9304,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="CuadroTexto 25">
@@ -9332,8 +9374,8 @@
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1763495" cy="445315"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="CuadroTexto 26">
@@ -9375,6 +9417,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9389,7 +9432,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9402,7 +9445,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9414,7 +9457,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9426,7 +9469,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9440,7 +9483,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9452,7 +9495,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9464,7 +9507,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9476,7 +9519,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9492,7 +9535,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="CuadroTexto 26">
@@ -9562,8 +9605,8 @@
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1763495" cy="446789"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="CuadroTexto 27">
@@ -9605,6 +9648,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9619,7 +9663,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9632,7 +9676,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9644,7 +9688,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9656,7 +9700,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9668,7 +9712,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9682,7 +9726,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9694,7 +9738,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9710,7 +9754,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="CuadroTexto 27">
@@ -9780,8 +9824,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1606274" cy="446789"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="CuadroTexto 28">
@@ -9823,6 +9867,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9837,7 +9882,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9850,7 +9895,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9862,7 +9907,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9874,7 +9919,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9886,7 +9931,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9898,7 +9943,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9912,7 +9957,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9924,7 +9969,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9936,7 +9981,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9948,7 +9993,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9964,7 +10009,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="CuadroTexto 28">
@@ -10034,8 +10079,8 @@
       <xdr:rowOff>237331</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3147528" cy="219163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="CuadroTexto 30">
@@ -10109,7 +10154,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -10121,7 +10166,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -10136,7 +10181,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -10148,7 +10193,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -10163,7 +10208,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -10175,7 +10220,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -10190,7 +10235,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -10202,7 +10247,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -10217,7 +10262,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -10229,7 +10274,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -10244,7 +10289,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -10266,7 +10311,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="CuadroTexto 30">
@@ -10361,8 +10406,8 @@
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4303999" cy="445315"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="CuadroTexto 31">
@@ -10433,7 +10478,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -10447,7 +10492,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10460,7 +10505,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10472,7 +10517,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10484,7 +10529,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10496,7 +10541,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10508,7 +10553,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10520,7 +10565,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10532,7 +10577,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10544,7 +10589,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10556,7 +10601,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10568,7 +10613,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10580,7 +10625,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10594,7 +10639,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10606,7 +10651,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10618,7 +10663,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10630,7 +10675,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10642,7 +10687,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10654,7 +10699,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10666,7 +10711,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10678,7 +10723,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10690,7 +10735,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10702,7 +10747,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10714,7 +10759,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10738,7 +10783,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="CuadroTexto 31">
@@ -10833,8 +10878,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4218784" cy="328295"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="CuadroTexto 32">
@@ -10907,7 +10952,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10920,7 +10965,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10932,7 +10977,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10944,7 +10989,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10956,7 +11001,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10968,7 +11013,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10980,7 +11025,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10992,7 +11037,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11004,7 +11049,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11016,7 +11061,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11028,7 +11073,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11040,7 +11085,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11052,7 +11097,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11064,7 +11109,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11076,7 +11121,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11088,7 +11133,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11100,7 +11145,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11114,7 +11159,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11126,7 +11171,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11198,7 +11243,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="CuadroTexto 32">
@@ -11317,8 +11362,8 @@
       <xdr:rowOff>91281</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4322850" cy="356701"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="CuadroTexto 33">
@@ -11391,7 +11436,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11404,7 +11449,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11416,7 +11461,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11428,7 +11473,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11440,7 +11485,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11452,7 +11497,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11464,7 +11509,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11476,7 +11521,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11488,7 +11533,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11500,7 +11545,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11512,7 +11557,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11524,7 +11569,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11536,7 +11581,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11548,7 +11593,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11560,7 +11605,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11572,7 +11617,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11584,7 +11629,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11598,7 +11643,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11610,7 +11655,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11622,7 +11667,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11634,7 +11679,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11646,7 +11691,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11658,7 +11703,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11682,7 +11727,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="CuadroTexto 33">
@@ -11777,8 +11822,8 @@
       <xdr:rowOff>432594</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4938853" cy="357855"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="CuadroTexto 34">
@@ -11851,7 +11896,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11864,7 +11909,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11876,7 +11921,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11888,7 +11933,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11900,7 +11945,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11912,7 +11957,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11924,7 +11969,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11936,7 +11981,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11948,7 +11993,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11960,7 +12005,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11972,7 +12017,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11984,7 +12029,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11996,7 +12041,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12008,7 +12053,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12020,7 +12065,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12032,7 +12077,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12044,7 +12089,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12056,7 +12101,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12068,7 +12113,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12080,7 +12125,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12092,7 +12137,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12106,7 +12151,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12118,7 +12163,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12130,7 +12175,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12142,7 +12187,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12154,7 +12199,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12178,7 +12223,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="CuadroTexto 34">
@@ -12273,8 +12318,8 @@
       <xdr:rowOff>87313</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2484911" cy="445315"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="CuadroTexto 35">
@@ -12347,7 +12392,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12360,7 +12405,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12372,7 +12417,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12384,7 +12429,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12396,7 +12441,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12408,7 +12453,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12420,7 +12465,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12432,7 +12477,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12444,7 +12489,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12456,7 +12501,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12470,7 +12515,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12482,7 +12527,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12494,7 +12539,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12506,7 +12551,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12518,7 +12563,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12530,7 +12575,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12542,7 +12587,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12554,7 +12599,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12566,7 +12611,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12590,7 +12635,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="CuadroTexto 35">
@@ -12685,8 +12730,8 @@
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2561342" cy="445315"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="37" name="CuadroTexto 36">
@@ -12759,7 +12804,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12772,7 +12817,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12784,7 +12829,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12796,7 +12841,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12808,7 +12853,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12820,7 +12865,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12834,7 +12879,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12846,7 +12891,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12858,7 +12903,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12870,7 +12915,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12894,7 +12939,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="37" name="CuadroTexto 36">
@@ -12989,8 +13034,8 @@
       <xdr:rowOff>296863</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2517805" cy="445315"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="CuadroTexto 37">
@@ -13063,7 +13108,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13076,7 +13121,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13088,7 +13133,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13100,7 +13145,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13112,7 +13157,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13124,7 +13169,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13138,7 +13183,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13150,7 +13195,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13162,7 +13207,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13174,7 +13219,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13198,7 +13243,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="CuadroTexto 37">
@@ -13293,8 +13338,8 @@
       <xdr:rowOff>20638</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2949334" cy="445315"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="CuadroTexto 38">
@@ -13367,7 +13412,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13380,7 +13425,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13392,7 +13437,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13404,7 +13449,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13416,7 +13461,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13428,7 +13473,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13440,7 +13485,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13452,7 +13497,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13464,7 +13509,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13478,7 +13523,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13490,7 +13535,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13502,7 +13547,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13514,7 +13559,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13526,7 +13571,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13538,7 +13583,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13550,7 +13595,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13562,7 +13607,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13586,7 +13631,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="CuadroTexto 38">
@@ -13681,8 +13726,8 @@
       <xdr:rowOff>125413</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4228081" cy="438325"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="CuadroTexto 39">
@@ -13753,7 +13798,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13765,7 +13810,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13777,7 +13822,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13789,7 +13834,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13801,7 +13846,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13813,7 +13858,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13825,7 +13870,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13837,7 +13882,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13849,7 +13894,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13861,7 +13906,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13873,7 +13918,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13922,7 +13967,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13934,7 +13979,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13946,7 +13991,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13958,7 +14003,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13970,7 +14015,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13982,7 +14027,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13994,7 +14039,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14006,7 +14051,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14018,7 +14063,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14030,7 +14075,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14042,7 +14087,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14054,7 +14099,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14066,7 +14111,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14078,7 +14123,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14100,7 +14145,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="CuadroTexto 39">
@@ -14235,8 +14280,8 @@
       <xdr:rowOff>39688</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1589346" cy="409086"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="CuadroTexto 40">
@@ -14309,7 +14354,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14322,7 +14367,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14334,7 +14379,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14346,7 +14391,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14358,7 +14403,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14372,7 +14417,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14384,7 +14429,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14396,7 +14441,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14420,7 +14465,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="CuadroTexto 40">
@@ -14515,8 +14560,8 @@
       <xdr:rowOff>160338</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5088060" cy="219163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="42" name="CuadroTexto 41">
@@ -14587,7 +14632,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14599,7 +14644,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14611,7 +14656,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14623,7 +14668,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14635,7 +14680,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14647,7 +14692,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14659,7 +14704,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14671,7 +14716,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14683,7 +14728,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14695,7 +14740,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14707,7 +14752,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14719,7 +14764,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14731,7 +14776,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14743,7 +14788,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14755,7 +14800,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14777,7 +14822,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="42" name="CuadroTexto 41">
@@ -15130,761 +15175,945 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="85.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
-    <col min="8" max="8" width="43.42578125" customWidth="1"/>
+    <col min="4" max="6" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
     </row>
-    <row r="2" spans="1:8" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:10" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="H2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="I2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="J2" s="46" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+    <row r="3" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="88">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="92"/>
+      <c r="D3" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="94"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="42" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="56" t="s">
+    <row r="4" spans="1:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="89"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="112" t="s">
+      <c r="H4" s="95"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="61" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+    <row r="5" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="88">
         <v>2</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="113" t="s">
+      <c r="H5" s="94"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="62" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="55" t="s">
+    <row r="6" spans="1:10" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="89"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="112" t="s">
+      <c r="H6" s="95"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="61" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+    <row r="7" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="88">
         <v>3</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="42" t="s">
+      <c r="C7" s="92"/>
+      <c r="D7" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="114" t="s">
+      <c r="H7" s="94"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="125" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="115"/>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="89"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="126"/>
     </row>
-    <row r="9" spans="1:8" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+    <row r="9" spans="1:10" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="H9" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="98" t="s">
+      <c r="I9" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="116" t="s">
+      <c r="J9" s="63" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
+    <row r="10" spans="1:10" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="60" t="s">
+      <c r="E10" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="98" t="s">
+      <c r="I10" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="116" t="s">
+      <c r="J10" s="63" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
+    <row r="11" spans="1:10" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>6</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="150" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="H11" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="99" t="s">
+      <c r="I11" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="116" t="s">
+      <c r="J11" s="63" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+    <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="88">
         <v>7</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="61" t="s">
+      <c r="C12" s="92"/>
+      <c r="D12" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="89" t="s">
+      <c r="E12" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="113" t="s">
+      <c r="H12" s="127"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="62" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="65" t="s">
+    <row r="13" spans="1:10" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="89"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="112" t="s">
+      <c r="H13" s="128"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="61" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+    <row r="14" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="88">
         <v>8</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="42" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="89" t="s">
+      <c r="E14" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="113" t="s">
+      <c r="H14" s="106"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="62" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="56" t="s">
+    <row r="15" spans="1:10" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="89"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="112" t="s">
+      <c r="H15" s="107"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="61" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28">
+    <row r="16" spans="1:10" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>9</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="150" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="H16" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="92" t="s">
+      <c r="I16" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="117" t="s">
+      <c r="J16" s="64" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+    <row r="17" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="88">
         <v>10</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="61" t="s">
+      <c r="C17" s="108"/>
+      <c r="D17" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="89" t="s">
+      <c r="E17" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="75" t="s">
+      <c r="H17" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="101" t="s">
+      <c r="I17" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="118" t="s">
+      <c r="J17" s="65" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="74" t="s">
+    <row r="18" spans="1:10" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="89"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="76"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="112" t="s">
+      <c r="H18" s="29"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="61" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+    <row r="19" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="88">
         <v>11</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="61" t="s">
+      <c r="C19" s="108"/>
+      <c r="D19" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="89" t="s">
+      <c r="E19" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="75" t="s">
+      <c r="H19" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="101" t="s">
+      <c r="I19" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="118" t="s">
+      <c r="J19" s="65" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="90" t="s">
+    <row r="20" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="112"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="H20" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="103" t="s">
+      <c r="I20" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="121" t="s">
+      <c r="J20" s="68" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="78" t="s">
+    <row r="21" spans="1:10" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="89"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="104" t="s">
+      <c r="I21" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="123" t="s">
+      <c r="J21" s="70" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="96" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+    <row r="22" spans="1:10" ht="96" x14ac:dyDescent="0.25">
+      <c r="A22" s="88">
         <v>12</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="42" t="s">
+      <c r="C22" s="108"/>
+      <c r="D22" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="89" t="s">
+      <c r="E22" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="91" t="s">
+      <c r="H22" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="105" t="s">
+      <c r="I22" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="119" t="s">
+      <c r="J22" s="66" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="74" t="s">
+    <row r="23" spans="1:10" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="89"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="79" t="s">
+      <c r="H23" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="106" t="s">
+      <c r="I23" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="120" t="s">
+      <c r="J23" s="67" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28">
+    <row r="24" spans="1:10" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
         <v>13</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="80" t="s">
+      <c r="E24" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="152" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="81" t="s">
+      <c r="H24" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="107" t="s">
+      <c r="I24" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="H24" s="124" t="s">
+      <c r="J24" s="71" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28">
+    <row r="25" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
         <v>14</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="80" t="s">
+      <c r="E25" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="152" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="81" t="s">
+      <c r="H25" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="107" t="s">
+      <c r="I25" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="122" t="s">
+      <c r="J25" s="69" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28">
+    <row r="26" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
         <v>15</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="150" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="H26" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="108" t="s">
+      <c r="I26" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="H26" s="122" t="s">
+      <c r="J26" s="69" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
+    <row r="27" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="88">
         <v>16</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="61" t="s">
+      <c r="C27" s="94"/>
+      <c r="D27" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="82" t="s">
+      <c r="E27" s="155" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="155" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="153"/>
+      <c r="H27" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="109" t="s">
+      <c r="I27" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="H27" s="125" t="s">
+      <c r="J27" s="72" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="84" t="s">
+    <row r="28" spans="1:10" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="89"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="106" t="s">
+      <c r="I28" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="120" t="s">
+      <c r="J28" s="67" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+    <row r="29" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="88">
         <v>17</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="61" t="s">
+      <c r="C29" s="114"/>
+      <c r="D29" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="75" t="s">
+      <c r="E29" s="155" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="155" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="153"/>
+      <c r="H29" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="109" t="s">
+      <c r="I29" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="125" t="s">
+      <c r="J29" s="72" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="79" t="s">
+    <row r="30" spans="1:10" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="89"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="110" t="s">
+      <c r="I30" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="H30" s="126" t="s">
+      <c r="J30" s="73" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="84" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
+    <row r="31" spans="1:10" ht="84" x14ac:dyDescent="0.25">
+      <c r="A31" s="116">
         <v>18</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="61" t="s">
+      <c r="C31" s="94"/>
+      <c r="D31" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="70"/>
-      <c r="F31" s="88" t="s">
+      <c r="E31" s="155" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="155" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="153"/>
+      <c r="H31" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="109" t="s">
+      <c r="I31" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="125" t="s">
+      <c r="J31" s="72" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="85" t="s">
+    <row r="32" spans="1:10" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="117"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="G32" s="111" t="s">
+      <c r="I32" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="126" t="s">
+      <c r="J32" s="73" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="96" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
+    <row r="33" spans="1:10" ht="96" x14ac:dyDescent="0.25">
+      <c r="A33" s="116">
         <v>19</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="61" t="s">
+      <c r="C33" s="92"/>
+      <c r="D33" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="70"/>
-      <c r="F33" s="86" t="s">
+      <c r="E33" s="155" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="155" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="153"/>
+      <c r="H33" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="109" t="s">
+      <c r="I33" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="H33" s="119" t="s">
+      <c r="J33" s="66" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="87" t="s">
+    <row r="34" spans="1:10" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="119"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="111" t="s">
+      <c r="I34" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="H34" s="126" t="s">
+      <c r="J34" s="73" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="96" x14ac:dyDescent="0.25">
-      <c r="A35" s="29">
+    <row r="35" spans="1:10" ht="96" x14ac:dyDescent="0.25">
+      <c r="A35" s="116">
         <v>20</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="61" t="s">
+      <c r="C35" s="108"/>
+      <c r="D35" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="86" t="s">
+      <c r="E35" s="155" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="155" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="109" t="s">
+      <c r="I35" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="125" t="s">
+      <c r="J35" s="72" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="83" t="s">
+    <row r="36" spans="1:10" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="119"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="111" t="s">
+      <c r="I36" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="H36" s="126" t="s">
+      <c r="J36" s="73" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E37" s="68"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G37" s="23"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E38" s="69"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G38" s="113"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E39" s="69"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="113"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H7:H8"/>
+  <mergeCells count="95">
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
@@ -15892,35 +16121,38 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15930,687 +16162,851 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F946AF-EA2C-4AD8-AAD4-A337D6559201}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="75.140625" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="39.7109375" customWidth="1"/>
+    <col min="4" max="6" width="37.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="8" max="8" width="37.5703125" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="135"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="76"/>
     </row>
-    <row r="2" spans="1:8" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="130" t="s">
+    <row r="2" spans="1:10" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="131" t="s">
+      <c r="D2" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="131" t="s">
+      <c r="E2" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="131" t="s">
+      <c r="H2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="131" t="s">
+      <c r="I2" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="136" t="s">
+      <c r="J2" s="87" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="130">
+    <row r="3" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="74">
         <v>1</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="132">
         <v>2</v>
       </c>
       <c r="B4" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="46" t="s">
+      <c r="C4" s="134"/>
+      <c r="D4" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="147" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="147" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="102"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="42" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="133"/>
       <c r="B5" s="133"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="56" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="140" t="s">
+      <c r="H5" s="103"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="78" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="132">
         <v>3</v>
       </c>
       <c r="B6" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="46" t="s">
+      <c r="C6" s="134"/>
+      <c r="D6" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="147" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="147" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="102"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="133"/>
       <c r="B7" s="133"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="56" t="s">
+      <c r="C7" s="135"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="140" t="s">
+      <c r="H7" s="103"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="78" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="132">
         <v>4</v>
       </c>
       <c r="B8" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="46" t="s">
+      <c r="C8" s="134"/>
+      <c r="D8" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="147" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="147" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="89" t="s">
+      <c r="H8" s="102"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="133"/>
       <c r="B9" s="133"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="56" t="s">
+      <c r="C9" s="135"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="140" t="s">
+      <c r="H9" s="103"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="78" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="130">
+    <row r="10" spans="1:10" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="74">
         <v>5</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="48" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="H10" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="G10" s="80" t="s">
+      <c r="I10" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="J10" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="130">
+    <row r="11" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="74">
         <v>6</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="48" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="19"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="130">
+    <row r="12" spans="1:10" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="74">
         <v>7</v>
       </c>
-      <c r="B12" s="131" t="s">
+      <c r="B12" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="48" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="H12" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="80" t="s">
+      <c r="I12" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="J12" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="130">
+    <row r="13" spans="1:10" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="74">
         <v>8</v>
       </c>
-      <c r="B13" s="131" t="s">
+      <c r="B13" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="48" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="19"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="130">
+    <row r="14" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="74">
         <v>9</v>
       </c>
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="148" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56" t="s">
+      <c r="E14" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="59" t="s">
+      <c r="I14" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="J14" s="20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="130">
+    <row r="15" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="74">
         <v>10</v>
       </c>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="75" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="19"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="132">
         <v>11</v>
       </c>
       <c r="B16" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="94"/>
+      <c r="D16" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="139" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="139" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="138" t="s">
+      <c r="H16" s="18"/>
+      <c r="I16" s="136" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="57" t="s">
+      <c r="J16" s="102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="134"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="55" t="s">
+    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="138"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="147"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="146"/>
     </row>
-    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="134"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="55" t="s">
+    <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="138"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="147"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="146"/>
     </row>
-    <row r="19" spans="1:8" ht="42" x14ac:dyDescent="0.25">
-      <c r="A19" s="134"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="55" t="s">
+    <row r="19" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+      <c r="A19" s="138"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="147"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="146"/>
     </row>
-    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="134"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="147"/>
+    <row r="20" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="138"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="146"/>
     </row>
-    <row r="21" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="133"/>
       <c r="B21" s="133"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="58"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="103"/>
     </row>
-    <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="132">
         <v>12</v>
       </c>
       <c r="B22" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="42" t="s">
+      <c r="C22" s="143"/>
+      <c r="D22" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="141"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="57" t="s">
+      <c r="H22" s="79"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="134"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="55" t="s">
+    <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="138"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="147"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="146"/>
     </row>
-    <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="134"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="55" t="s">
+    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="138"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="142"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="147"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="146"/>
     </row>
-    <row r="25" spans="1:8" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="133"/>
       <c r="B25" s="133"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="55" t="s">
+      <c r="C25" s="145"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="143"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="58"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="103"/>
     </row>
-    <row r="26" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="130">
+    <row r="26" spans="1:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="74">
         <v>13</v>
       </c>
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="137"/>
-      <c r="D26" s="149" t="s">
+      <c r="C26" s="77"/>
+      <c r="D26" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="144" t="s">
+      <c r="E26" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="151" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="145"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="144" t="s">
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="82" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="130">
+    <row r="27" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="74">
         <v>14</v>
       </c>
-      <c r="B27" s="131" t="s">
+      <c r="B27" s="75" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="H27" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="80" t="s">
+      <c r="I27" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="59" t="s">
+      <c r="J27" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="130">
+    <row r="28" spans="1:10" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="74">
         <v>15</v>
       </c>
-      <c r="B28" s="131" t="s">
+      <c r="B28" s="75" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="56" t="s">
+      <c r="H28" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="80" t="s">
+      <c r="I28" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="J28" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="132">
         <v>16</v>
       </c>
       <c r="B29" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="22" t="s">
+      <c r="C29" s="94"/>
+      <c r="D29" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E29" s="139" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="139" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="H29" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="138" t="s">
+      <c r="I29" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="H29" s="57" t="s">
+      <c r="J29" s="102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="133"/>
       <c r="B30" s="133"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="65" t="s">
+      <c r="C30" s="95"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="58"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="103"/>
     </row>
-    <row r="31" spans="1:8" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="130">
+    <row r="31" spans="1:10" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="74">
         <v>17</v>
       </c>
-      <c r="B31" s="131" t="s">
+      <c r="B31" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="17" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="56" t="s">
+      <c r="H31" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="80" t="s">
+      <c r="I31" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="H31" s="59" t="s">
+      <c r="J31" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="130">
+    <row r="32" spans="1:10" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="74">
         <v>18</v>
       </c>
-      <c r="B32" s="131" t="s">
+      <c r="B32" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="17" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F32" s="56" t="s">
+      <c r="H32" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="80" t="s">
+      <c r="I32" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="H32" s="59" t="s">
+      <c r="J32" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="130">
+    <row r="33" spans="1:10" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="74">
         <v>19</v>
       </c>
-      <c r="B33" s="131" t="s">
+      <c r="B33" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="17" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="56" t="s">
+      <c r="E33" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="H33" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="80" t="s">
+      <c r="I33" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="J33" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="130">
+    <row r="34" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="74">
         <v>20</v>
       </c>
-      <c r="B34" s="131" t="s">
+      <c r="B34" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="49" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="56" t="s">
+      <c r="E34" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="H34" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="80" t="s">
+      <c r="I34" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="H34" s="59" t="s">
+      <c r="J34" s="20" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="H16:H21"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="H29:H30"/>
+  <mergeCells count="50">
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="J29:J30"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D22:D25"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="C22:C25"/>
-    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="I22:I25"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="B16:B21"/>
     <mergeCell ref="C16:C21"/>
     <mergeCell ref="D16:D21"/>
-    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="E16:E21"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/GV/ListaKPIS.xlsx
+++ b/GV/ListaKPIS.xlsx
@@ -1,34 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\GV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825ECFCC-AE34-468F-AF66-94F8F309C939}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07940B55-1DE4-4849-889B-178475873C13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cerdo" sheetId="1" r:id="rId1"/>
     <sheet name="Huevo" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1343,10 +1334,46 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1355,17 +1382,35 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1379,43 +1424,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1433,67 +1448,46 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1505,7 +1499,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1517,37 +1517,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1582,8 +1573,8 @@
       <xdr:rowOff>648607</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2401427" cy="509114"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="110" name="CuadroTexto 109">
@@ -1899,7 +1890,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="110" name="CuadroTexto 109">
@@ -6520,8 +6511,8 @@
       <xdr:rowOff>396875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2940805" cy="509114"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="126" name="CuadroTexto 125">
@@ -6813,7 +6804,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="126" name="CuadroTexto 125">
@@ -7186,8 +7177,8 @@
       <xdr:rowOff>746125</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3192990" cy="509114"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="128" name="CuadroTexto 127">
@@ -7407,7 +7398,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="128" name="CuadroTexto 127">
@@ -15177,37 +15168,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A40" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="85.140625" customWidth="1"/>
-    <col min="4" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="85.109375" customWidth="1"/>
+    <col min="4" max="6" width="30.88671875" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="10" max="10" width="43.44140625" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
     </row>
-    <row r="2" spans="1:10" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -15239,129 +15230,129 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88">
+    <row r="3" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="108">
         <v>1</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="98" t="s">
+      <c r="C3" s="110"/>
+      <c r="D3" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="116" t="s">
         <v>133</v>
       </c>
       <c r="G3" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="94"/>
-      <c r="I3" s="96"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="114"/>
       <c r="J3" s="42" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
+    <row r="4" spans="1:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="109"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
       <c r="G4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="97"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="115"/>
       <c r="J4" s="61" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88">
+    <row r="5" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="108">
         <v>2</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="104" t="s">
+      <c r="C5" s="110"/>
+      <c r="D5" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="118" t="s">
         <v>133</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="96"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="114"/>
       <c r="J5" s="62" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
+    <row r="6" spans="1:10" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="109"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
       <c r="G6" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="95"/>
-      <c r="I6" s="97"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="115"/>
       <c r="J6" s="61" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88">
+    <row r="7" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="108">
         <v>3</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="100" t="s">
+      <c r="C7" s="110"/>
+      <c r="D7" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="125" t="s">
+      <c r="H7" s="127"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="100" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="126"/>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="109"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="101"/>
     </row>
-    <row r="9" spans="1:10" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>4</v>
       </c>
@@ -15391,7 +15382,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>5</v>
       </c>
@@ -15419,7 +15410,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>6</v>
       </c>
@@ -15430,10 +15421,10 @@
       <c r="D11" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="150" t="s">
+      <c r="E11" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="150" t="s">
+      <c r="F11" s="88" t="s">
         <v>133</v>
       </c>
       <c r="G11" s="15" t="s">
@@ -15449,91 +15440,91 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88">
+    <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="108">
         <v>7</v>
       </c>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="120" t="s">
+      <c r="C12" s="110"/>
+      <c r="D12" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="100" t="s">
+      <c r="F12" s="91" t="s">
         <v>133</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="96"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="114"/>
       <c r="J12" s="62" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="89"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
+    <row r="13" spans="1:10" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="109"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
       <c r="G13" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="128"/>
-      <c r="I13" s="97"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="115"/>
       <c r="J13" s="61" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88">
+    <row r="14" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="108">
         <v>8</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="100" t="s">
+      <c r="C14" s="110"/>
+      <c r="D14" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="100" t="s">
+      <c r="E14" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="100" t="s">
+      <c r="F14" s="91" t="s">
         <v>133</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="106"/>
+      <c r="H14" s="133"/>
       <c r="I14" s="23"/>
       <c r="J14" s="62" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="89"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
+    <row r="15" spans="1:10" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="109"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
       <c r="G15" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="107"/>
+      <c r="H15" s="134"/>
       <c r="I15" s="49"/>
       <c r="J15" s="61" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>9</v>
       </c>
@@ -15544,10 +15535,10 @@
       <c r="D16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="150" t="s">
+      <c r="E16" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="150" t="s">
+      <c r="F16" s="88" t="s">
         <v>133</v>
       </c>
       <c r="G16" s="17" t="s">
@@ -15563,21 +15554,21 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88">
+    <row r="17" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="108">
         <v>10</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="120" t="s">
+      <c r="C17" s="106"/>
+      <c r="D17" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="100" t="s">
+      <c r="E17" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="100" t="s">
+      <c r="F17" s="91" t="s">
         <v>133</v>
       </c>
       <c r="G17" s="42" t="s">
@@ -15593,13 +15584,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="89"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
+    <row r="18" spans="1:10" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="109"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
       <c r="G18" s="27" t="s">
         <v>67</v>
       </c>
@@ -15609,21 +15600,21 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="88">
+    <row r="19" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="108">
         <v>11</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="120" t="s">
+      <c r="C19" s="106"/>
+      <c r="D19" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="100" t="s">
+      <c r="E19" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="100" t="s">
+      <c r="F19" s="91" t="s">
         <v>133</v>
       </c>
       <c r="G19" s="42" t="s">
@@ -15639,13 +15630,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
+    <row r="20" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="132"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
       <c r="G20" s="43" t="s">
         <v>66</v>
       </c>
@@ -15659,13 +15650,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="89"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
+    <row r="21" spans="1:10" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="109"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
       <c r="G21" s="25"/>
       <c r="H21" s="31" t="s">
         <v>81</v>
@@ -15677,21 +15668,21 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="96" x14ac:dyDescent="0.25">
-      <c r="A22" s="88">
+    <row r="22" spans="1:10" ht="96" x14ac:dyDescent="0.3">
+      <c r="A22" s="108">
         <v>12</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="100" t="s">
+      <c r="C22" s="106"/>
+      <c r="D22" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="100" t="s">
+      <c r="E22" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="100" t="s">
+      <c r="F22" s="91" t="s">
         <v>133</v>
       </c>
       <c r="G22" s="42" t="s">
@@ -15707,13 +15698,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="89"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
+    <row r="23" spans="1:10" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="109"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="27" t="s">
         <v>66</v>
       </c>
@@ -15727,7 +15718,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>13</v>
       </c>
@@ -15738,10 +15729,10 @@
       <c r="D24" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="152" t="s">
+      <c r="E24" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="152" t="s">
+      <c r="F24" s="90" t="s">
         <v>133</v>
       </c>
       <c r="G24" s="33" t="s">
@@ -15757,7 +15748,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>14</v>
       </c>
@@ -15768,10 +15759,10 @@
       <c r="D25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="152" t="s">
+      <c r="E25" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="152" t="s">
+      <c r="F25" s="90" t="s">
         <v>133</v>
       </c>
       <c r="G25" s="33" t="s">
@@ -15787,7 +15778,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>15</v>
       </c>
@@ -15798,10 +15789,10 @@
       <c r="D26" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="150" t="s">
+      <c r="E26" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="150" t="s">
+      <c r="F26" s="88" t="s">
         <v>133</v>
       </c>
       <c r="G26" s="18" t="s">
@@ -15817,24 +15808,24 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="88">
+    <row r="27" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="108">
         <v>16</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="120" t="s">
+      <c r="C27" s="127"/>
+      <c r="D27" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="155" t="s">
+      <c r="E27" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="F27" s="155" t="s">
+      <c r="F27" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="G27" s="153"/>
+      <c r="G27" s="96"/>
       <c r="H27" s="35" t="s">
         <v>84</v>
       </c>
@@ -15845,14 +15836,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="89"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="154"/>
+    <row r="28" spans="1:10" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="109"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="97"/>
       <c r="H28" s="37" t="s">
         <v>85</v>
       </c>
@@ -15863,24 +15854,24 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="88">
+    <row r="29" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="108">
         <v>17</v>
       </c>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="114"/>
-      <c r="D29" s="120" t="s">
+      <c r="C29" s="122"/>
+      <c r="D29" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="155" t="s">
+      <c r="E29" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="F29" s="155" t="s">
+      <c r="F29" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="153"/>
+      <c r="G29" s="96"/>
       <c r="H29" s="28" t="s">
         <v>73</v>
       </c>
@@ -15891,14 +15882,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="89"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="154"/>
+    <row r="30" spans="1:10" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="109"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="97"/>
       <c r="H30" s="32" t="s">
         <v>86</v>
       </c>
@@ -15909,24 +15900,24 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="84" x14ac:dyDescent="0.25">
-      <c r="A31" s="116">
+    <row r="31" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="124">
         <v>18</v>
       </c>
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="120" t="s">
+      <c r="C31" s="127"/>
+      <c r="D31" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="155" t="s">
+      <c r="E31" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="155" t="s">
+      <c r="F31" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="G31" s="153"/>
+      <c r="G31" s="96"/>
       <c r="H31" s="41" t="s">
         <v>87</v>
       </c>
@@ -15937,14 +15928,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="117"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="154"/>
+    <row r="32" spans="1:10" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="125"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="97"/>
       <c r="H32" s="38" t="s">
         <v>86</v>
       </c>
@@ -15955,24 +15946,24 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="96" x14ac:dyDescent="0.25">
-      <c r="A33" s="116">
+    <row r="33" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="124">
         <v>19</v>
       </c>
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="120" t="s">
+      <c r="C33" s="110"/>
+      <c r="D33" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="155" t="s">
+      <c r="E33" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="155" t="s">
+      <c r="F33" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="G33" s="153"/>
+      <c r="G33" s="96"/>
       <c r="H33" s="39" t="s">
         <v>88</v>
       </c>
@@ -15983,14 +15974,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="119"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="154"/>
+    <row r="34" spans="1:10" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="129"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="97"/>
       <c r="H34" s="40" t="s">
         <v>73</v>
       </c>
@@ -16001,21 +15992,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="96" x14ac:dyDescent="0.25">
-      <c r="A35" s="116">
+    <row r="35" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="124">
         <v>20</v>
       </c>
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="108"/>
-      <c r="D35" s="120" t="s">
+      <c r="C35" s="106"/>
+      <c r="D35" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="155" t="s">
+      <c r="E35" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="155" t="s">
+      <c r="F35" s="94" t="s">
         <v>133</v>
       </c>
       <c r="G35" s="24"/>
@@ -16029,13 +16020,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="119"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
+    <row r="36" spans="1:10" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="129"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
       <c r="G36" s="26"/>
       <c r="H36" s="36" t="s">
         <v>73</v>
@@ -16047,32 +16038,81 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G37" s="23"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G38" s="113"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G38" s="121"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G39" s="113"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G39" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="E22:E23"/>
@@ -16089,70 +16129,21 @@
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16164,36 +16155,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F946AF-EA2C-4AD8-AAD4-A337D6559201}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="75.140625" customWidth="1"/>
-    <col min="4" max="6" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="75.109375" customWidth="1"/>
+    <col min="4" max="6" width="37.6640625" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
+    <col min="8" max="8" width="37.5546875" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="10" max="10" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="131"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="156"/>
       <c r="J1" s="76"/>
     </row>
-    <row r="2" spans="1:10" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
@@ -16225,7 +16216,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74">
         <v>1</v>
       </c>
@@ -16251,133 +16242,133 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132">
+    <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="143">
         <v>2</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="147" t="s">
+      <c r="C4" s="152"/>
+      <c r="D4" s="138" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="138" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="147" t="s">
+      <c r="F4" s="138" t="s">
         <v>133</v>
       </c>
       <c r="G4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="102"/>
-      <c r="I4" s="136"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="149"/>
       <c r="J4" s="42" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="133"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
+    <row r="5" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="145"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
       <c r="G5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="103"/>
-      <c r="I5" s="137"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="151"/>
       <c r="J5" s="78" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="132">
+    <row r="6" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="143">
         <v>3</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="147" t="s">
+      <c r="C6" s="152"/>
+      <c r="D6" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="147" t="s">
+      <c r="E6" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="147" t="s">
+      <c r="F6" s="138" t="s">
         <v>133</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="102"/>
-      <c r="I6" s="136"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="149"/>
       <c r="J6" s="42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="133"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
+    <row r="7" spans="1:10" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="145"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
       <c r="G7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="103"/>
-      <c r="I7" s="137"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="151"/>
       <c r="J7" s="78" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="132">
+    <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="143">
         <v>4</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="147" t="s">
+      <c r="C8" s="152"/>
+      <c r="D8" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="147" t="s">
+      <c r="E8" s="138" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="147" t="s">
+      <c r="F8" s="138" t="s">
         <v>133</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="102"/>
-      <c r="I8" s="136"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="149"/>
       <c r="J8" s="42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="133"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
+    <row r="9" spans="1:10" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="145"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
       <c r="G9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="103"/>
-      <c r="I9" s="137"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="151"/>
       <c r="J9" s="78" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="74">
         <v>5</v>
       </c>
@@ -16407,7 +16398,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="74">
         <v>6</v>
       </c>
@@ -16433,7 +16424,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="74">
         <v>7</v>
       </c>
@@ -16463,7 +16454,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="74">
         <v>8</v>
       </c>
@@ -16489,7 +16480,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="74">
         <v>9</v>
       </c>
@@ -16517,7 +16508,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="74">
         <v>10</v>
       </c>
@@ -16543,169 +16534,169 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="132">
+    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="143">
         <v>11</v>
       </c>
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="139" t="s">
+      <c r="C16" s="127"/>
+      <c r="D16" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="139" t="s">
+      <c r="E16" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="139" t="s">
+      <c r="F16" s="140" t="s">
         <v>133</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>37</v>
       </c>
       <c r="H16" s="18"/>
-      <c r="I16" s="136" t="s">
+      <c r="I16" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="J16" s="102" t="s">
+      <c r="J16" s="135" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="138"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
+    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A17" s="144"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
       <c r="G17" s="18" t="s">
         <v>38</v>
       </c>
       <c r="H17" s="18"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="146"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="137"/>
     </row>
-    <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="138"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
+    <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="144"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
       <c r="G18" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H18" s="18"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="146"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="137"/>
     </row>
-    <row r="19" spans="1:10" ht="42" x14ac:dyDescent="0.25">
-      <c r="A19" s="138"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
+    <row r="19" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="A19" s="144"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
       <c r="G19" s="18" t="s">
         <v>40</v>
       </c>
       <c r="H19" s="18"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="146"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="137"/>
     </row>
-    <row r="20" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="138"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
+    <row r="20" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A20" s="144"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="146"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="137"/>
     </row>
-    <row r="21" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="133"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
+    <row r="21" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="145"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="103"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="136"/>
     </row>
-    <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="132">
+    <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="143">
         <v>12</v>
       </c>
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="143"/>
-      <c r="D22" s="100" t="s">
+      <c r="C22" s="146"/>
+      <c r="D22" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="100" t="s">
+      <c r="E22" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="100" t="s">
+      <c r="F22" s="91" t="s">
         <v>133</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>37</v>
       </c>
       <c r="H22" s="79"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="102" t="s">
+      <c r="I22" s="149"/>
+      <c r="J22" s="135" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="138"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="149"/>
+    <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A23" s="144"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
       <c r="G23" s="18" t="s">
         <v>38</v>
       </c>
       <c r="H23" s="18"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="146"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="137"/>
     </row>
-    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="138"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
+    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A24" s="144"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
       <c r="G24" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H24" s="80"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="146"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="137"/>
     </row>
-    <row r="25" spans="1:10" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="133"/>
-      <c r="B25" s="133"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="149"/>
+    <row r="25" spans="1:10" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="145"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="93"/>
       <c r="G25" s="18" t="s">
         <v>42</v>
       </c>
       <c r="H25" s="81"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="103"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="136"/>
     </row>
-    <row r="26" spans="1:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="105.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="74">
         <v>13</v>
       </c>
@@ -16719,7 +16710,7 @@
       <c r="E26" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="151" t="s">
+      <c r="F26" s="89" t="s">
         <v>133</v>
       </c>
       <c r="G26" s="82" t="s">
@@ -16731,7 +16722,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="74">
         <v>14</v>
       </c>
@@ -16761,7 +16752,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="74">
         <v>15</v>
       </c>
@@ -16791,51 +16782,51 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="132">
+    <row r="29" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="143">
         <v>16</v>
       </c>
-      <c r="B29" s="132" t="s">
+      <c r="B29" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="139" t="s">
+      <c r="C29" s="127"/>
+      <c r="D29" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="139" t="s">
+      <c r="E29" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="139" t="s">
+      <c r="F29" s="140" t="s">
         <v>133</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="H29" s="102" t="s">
+      <c r="H29" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="136" t="s">
+      <c r="I29" s="149" t="s">
         <v>94</v>
       </c>
-      <c r="J29" s="102" t="s">
+      <c r="J29" s="135" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="133"/>
-      <c r="B30" s="133"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
+    <row r="30" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="145"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
       <c r="G30" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H30" s="103"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="103"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="136"/>
     </row>
-    <row r="31" spans="1:10" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="74">
         <v>17</v>
       </c>
@@ -16865,7 +16856,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="74">
         <v>18</v>
       </c>
@@ -16895,7 +16886,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="74">
         <v>19</v>
       </c>
@@ -16925,7 +16916,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="74">
         <v>20</v>
       </c>
@@ -16957,6 +16948,41 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="J16:J21"/>
     <mergeCell ref="J22:J25"/>
     <mergeCell ref="J29:J30"/>
@@ -16972,41 +16998,6 @@
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/GV/ListaKPIS.xlsx
+++ b/GV/ListaKPIS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\GV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07940B55-1DE4-4849-889B-178475873C13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FB741B-8884-41CE-B567-6D49F5E23BAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="161">
   <si>
     <t>No.</t>
   </si>
@@ -482,6 +482,63 @@
   </si>
   <si>
     <t>General</t>
+  </si>
+  <si>
+    <t>Medico/ Granjas</t>
+  </si>
+  <si>
+    <t>Medico/ Granjas ( Ver si lo habilitan en inventerios)</t>
+  </si>
+  <si>
+    <t>Revisarlo con don Heriberto para ver conforme al modelo de granja</t>
+  </si>
+  <si>
+    <t>Hablar en granjas para ver que grupos comen cada alimento (GV1)</t>
+  </si>
+  <si>
+    <t>No hay bascula y no los pesan al llegar (solo se pesa a la venta)</t>
+  </si>
+  <si>
+    <t>Se guarda cada mes por etapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver con la veterinaria para el reporte </t>
+  </si>
+  <si>
+    <t>Costo global en el sistema  (con vientres activos y no) - Ver con medicos para ubicar a cada una</t>
+  </si>
+  <si>
+    <t>En el alimento se agrega. Y se clasifica por formula , se le agregan y solo se encuentra cuando se le aplica extra</t>
+  </si>
+  <si>
+    <t>Se pasa hasta que este en postura, se lleva un control previo de costo. (pollita)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 fases de alimento (clasificada)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se le agrega al alimento </t>
+  </si>
+  <si>
+    <t>Se le agrega al alimento,solo en caso de uno extra se manifiesta</t>
+  </si>
+  <si>
+    <t>Las pollitas previo lo lleva el medico , se registra en siman hasta que esta en postura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema refleja las muertes por semana en siman. </t>
+  </si>
+  <si>
+    <t>NOTA P/SIMAN: Cuando se cancela una recoleccion aparecen los kilos y no desaparece.</t>
+  </si>
+  <si>
+    <t>Siman: agregar un apartado  de pelecha.</t>
+  </si>
+  <si>
+    <t>SIMAN</t>
+  </si>
+  <si>
+    <t>La depresiacion, para que sea de una manera correcta de registro y control.</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1343,14 +1400,110 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1358,10 +1511,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1376,118 +1526,52 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1499,13 +1583,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1517,28 +1595,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15166,10 +15226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15184,21 +15244,21 @@
     <col min="11" max="11" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
     </row>
-    <row r="2" spans="1:10" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -15230,129 +15290,129 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="108">
+    <row r="3" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="91">
         <v>1</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="116" t="s">
+      <c r="C3" s="95"/>
+      <c r="D3" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="101" t="s">
         <v>133</v>
       </c>
       <c r="G3" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="127"/>
-      <c r="I3" s="114"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="99"/>
       <c r="J3" s="42" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="109"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
+    <row r="4" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
       <c r="G4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="130"/>
-      <c r="I4" s="115"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="100"/>
       <c r="J4" s="61" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="108">
+    <row r="5" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="91">
         <v>2</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="118" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="107" t="s">
         <v>133</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="127"/>
-      <c r="I5" s="114"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="99"/>
       <c r="J5" s="62" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="109"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
+    <row r="6" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="92"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
       <c r="G6" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="130"/>
-      <c r="I6" s="115"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="100"/>
       <c r="J6" s="61" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="108">
+    <row r="7" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="91">
         <v>3</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="91" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="91" t="s">
+      <c r="F7" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="135" t="s">
+      <c r="G7" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="127"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="100" t="s">
+      <c r="H7" s="97"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="131" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="109"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="101"/>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="92"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="132"/>
     </row>
-    <row r="9" spans="1:10" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>4</v>
       </c>
@@ -15381,8 +15441,11 @@
       <c r="J9" s="63" t="s">
         <v>101</v>
       </c>
+      <c r="K9" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>5</v>
       </c>
@@ -15409,8 +15472,11 @@
       <c r="J10" s="63" t="s">
         <v>101</v>
       </c>
+      <c r="K10" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>6</v>
       </c>
@@ -15439,92 +15505,95 @@
       <c r="J11" s="63" t="s">
         <v>104</v>
       </c>
+      <c r="K11" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108">
+    <row r="12" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="91">
         <v>7</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="104" t="s">
+      <c r="C12" s="95"/>
+      <c r="D12" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="E12" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="103" t="s">
         <v>133</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="112"/>
-      <c r="I12" s="114"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="99"/>
       <c r="J12" s="62" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="109"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
+    <row r="13" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="92"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="113"/>
-      <c r="I13" s="115"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="100"/>
       <c r="J13" s="61" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108">
+    <row r="14" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="91">
         <v>8</v>
       </c>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="91" t="s">
+      <c r="C14" s="95"/>
+      <c r="D14" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="91" t="s">
+      <c r="E14" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="91" t="s">
+      <c r="F14" s="103" t="s">
         <v>133</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="133"/>
+      <c r="H14" s="109"/>
       <c r="I14" s="23"/>
       <c r="J14" s="62" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="109"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
+    <row r="15" spans="1:11" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="92"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="134"/>
+      <c r="H15" s="110"/>
       <c r="I15" s="49"/>
       <c r="J15" s="61" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>9</v>
       </c>
@@ -15554,21 +15623,21 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="108">
+    <row r="17" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="91">
         <v>10</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="104" t="s">
+      <c r="C17" s="113"/>
+      <c r="D17" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="91" t="s">
+      <c r="E17" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="91" t="s">
+      <c r="F17" s="103" t="s">
         <v>133</v>
       </c>
       <c r="G17" s="42" t="s">
@@ -15583,14 +15652,17 @@
       <c r="J17" s="65" t="s">
         <v>101</v>
       </c>
+      <c r="K17" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="109"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
+    <row r="18" spans="1:11" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="92"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="27" t="s">
         <v>67</v>
       </c>
@@ -15600,21 +15672,21 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="108">
+    <row r="19" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="91">
         <v>11</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="106"/>
-      <c r="D19" s="104" t="s">
+      <c r="C19" s="113"/>
+      <c r="D19" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="91" t="s">
+      <c r="E19" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="91" t="s">
+      <c r="F19" s="103" t="s">
         <v>133</v>
       </c>
       <c r="G19" s="42" t="s">
@@ -15630,13 +15702,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="132"/>
-      <c r="B20" s="126"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
+    <row r="20" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="117"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="43" t="s">
         <v>66</v>
       </c>
@@ -15649,14 +15721,17 @@
       <c r="J20" s="68" t="s">
         <v>107</v>
       </c>
+      <c r="K20" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="109"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
+    <row r="21" spans="1:11" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="92"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="25"/>
       <c r="H21" s="31" t="s">
         <v>81</v>
@@ -15668,21 +15743,21 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="96" x14ac:dyDescent="0.3">
-      <c r="A22" s="108">
+    <row r="22" spans="1:11" ht="96" x14ac:dyDescent="0.3">
+      <c r="A22" s="91">
         <v>12</v>
       </c>
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="106"/>
-      <c r="D22" s="91" t="s">
+      <c r="C22" s="113"/>
+      <c r="D22" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="91" t="s">
+      <c r="F22" s="103" t="s">
         <v>133</v>
       </c>
       <c r="G22" s="42" t="s">
@@ -15698,13 +15773,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="109"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
+    <row r="23" spans="1:11" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="92"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="27" t="s">
         <v>66</v>
       </c>
@@ -15718,7 +15793,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>13</v>
       </c>
@@ -15748,7 +15823,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>14</v>
       </c>
@@ -15778,7 +15853,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>15</v>
       </c>
@@ -15808,24 +15883,24 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="108">
+    <row r="27" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="91">
         <v>16</v>
       </c>
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="127"/>
-      <c r="D27" s="104" t="s">
+      <c r="C27" s="97"/>
+      <c r="D27" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="94" t="s">
+      <c r="E27" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="F27" s="94" t="s">
+      <c r="F27" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="G27" s="96"/>
+      <c r="G27" s="135"/>
       <c r="H27" s="35" t="s">
         <v>84</v>
       </c>
@@ -15836,14 +15911,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="109"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="97"/>
+    <row r="28" spans="1:11" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="92"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="136"/>
       <c r="H28" s="37" t="s">
         <v>85</v>
       </c>
@@ -15853,25 +15928,28 @@
       <c r="J28" s="67" t="s">
         <v>112</v>
       </c>
+      <c r="K28" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="29" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="108">
+    <row r="29" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="91">
         <v>17</v>
       </c>
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="122"/>
-      <c r="D29" s="104" t="s">
+      <c r="C29" s="120"/>
+      <c r="D29" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="94" t="s">
+      <c r="E29" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="F29" s="94" t="s">
+      <c r="F29" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="96"/>
+      <c r="G29" s="135"/>
       <c r="H29" s="28" t="s">
         <v>73</v>
       </c>
@@ -15882,14 +15960,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="109"/>
-      <c r="B30" s="103"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="97"/>
+    <row r="30" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="92"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="136"/>
       <c r="H30" s="32" t="s">
         <v>86</v>
       </c>
@@ -15899,25 +15977,28 @@
       <c r="J30" s="73" t="s">
         <v>101</v>
       </c>
+      <c r="K30" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="124">
+    <row r="31" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="118">
         <v>18</v>
       </c>
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="127"/>
-      <c r="D31" s="104" t="s">
+      <c r="C31" s="97"/>
+      <c r="D31" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="94" t="s">
+      <c r="E31" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="94" t="s">
+      <c r="F31" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="G31" s="96"/>
+      <c r="G31" s="135"/>
       <c r="H31" s="41" t="s">
         <v>87</v>
       </c>
@@ -15927,15 +16008,18 @@
       <c r="J31" s="72" t="s">
         <v>101</v>
       </c>
+      <c r="K31" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="125"/>
-      <c r="B32" s="126"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="97"/>
+    <row r="32" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="122"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="136"/>
       <c r="H32" s="38" t="s">
         <v>86</v>
       </c>
@@ -15945,25 +16029,28 @@
       <c r="J32" s="73" t="s">
         <v>101</v>
       </c>
+      <c r="K32" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="124">
+    <row r="33" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="118">
         <v>19</v>
       </c>
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="110"/>
-      <c r="D33" s="104" t="s">
+      <c r="C33" s="95"/>
+      <c r="D33" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="94" t="s">
+      <c r="E33" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="94" t="s">
+      <c r="F33" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="G33" s="96"/>
+      <c r="G33" s="135"/>
       <c r="H33" s="39" t="s">
         <v>88</v>
       </c>
@@ -15973,15 +16060,18 @@
       <c r="J33" s="66" t="s">
         <v>101</v>
       </c>
+      <c r="K33" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="129"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="97"/>
+    <row r="34" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="119"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="136"/>
       <c r="H34" s="40" t="s">
         <v>73</v>
       </c>
@@ -15991,22 +16081,25 @@
       <c r="J34" s="73" t="s">
         <v>101</v>
       </c>
+      <c r="K34" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="35" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="124">
+    <row r="35" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="118">
         <v>20</v>
       </c>
-      <c r="B35" s="102" t="s">
+      <c r="B35" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="104" t="s">
+      <c r="C35" s="113"/>
+      <c r="D35" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="94" t="s">
+      <c r="E35" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="94" t="s">
+      <c r="F35" s="126" t="s">
         <v>133</v>
       </c>
       <c r="G35" s="24"/>
@@ -16019,14 +16112,17 @@
       <c r="J35" s="72" t="s">
         <v>101</v>
       </c>
+      <c r="K35" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="36" spans="1:10" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="129"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
+    <row r="36" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="119"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
       <c r="G36" s="26"/>
       <c r="H36" s="36" t="s">
         <v>73</v>
@@ -16037,82 +16133,34 @@
       <c r="J36" s="73" t="s">
         <v>101</v>
       </c>
+      <c r="K36" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G37" s="23"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G38" s="121"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G38" s="125"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G39" s="121"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G39" s="125"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K43" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="E22:E23"/>
@@ -16129,6 +16177,15 @@
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="E35:E36"/>
@@ -16136,14 +16193,61 @@
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16153,10 +16257,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F946AF-EA2C-4AD8-AAD4-A337D6559201}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16168,23 +16272,24 @@
     <col min="8" max="8" width="37.5546875" customWidth="1"/>
     <col min="9" max="9" width="28.6640625" customWidth="1"/>
     <col min="10" max="10" width="39.6640625" customWidth="1"/>
+    <col min="11" max="11" width="80.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="154" t="s">
+    <row r="1" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="156"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="139"/>
       <c r="J1" s="76"/>
     </row>
-    <row r="2" spans="1:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
@@ -16216,7 +16321,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74">
         <v>1</v>
       </c>
@@ -16242,133 +16347,136 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="143">
+    <row r="4" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="140">
         <v>2</v>
       </c>
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="138" t="s">
+      <c r="C4" s="142"/>
+      <c r="D4" s="146" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="138" t="s">
+      <c r="E4" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="138" t="s">
+      <c r="F4" s="146" t="s">
         <v>133</v>
       </c>
       <c r="G4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="135"/>
-      <c r="I4" s="149"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="144"/>
       <c r="J4" s="42" t="s">
         <v>101</v>
       </c>
+      <c r="K4" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="145"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
+    <row r="5" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="141"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
       <c r="G5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="136"/>
-      <c r="I5" s="151"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="145"/>
       <c r="J5" s="78" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="143">
+    <row r="6" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="140">
         <v>3</v>
       </c>
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="152"/>
-      <c r="D6" s="138" t="s">
+      <c r="C6" s="142"/>
+      <c r="D6" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="146" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="146" t="s">
         <v>133</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="135"/>
-      <c r="I6" s="149"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="144"/>
       <c r="J6" s="42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="145"/>
-      <c r="B7" s="145"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
+    <row r="7" spans="1:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="141"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
       <c r="G7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="136"/>
-      <c r="I7" s="151"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="145"/>
       <c r="J7" s="78" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="143">
+    <row r="8" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="140">
         <v>4</v>
       </c>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="138" t="s">
+      <c r="C8" s="142"/>
+      <c r="D8" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="138" t="s">
+      <c r="E8" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="138" t="s">
+      <c r="F8" s="146" t="s">
         <v>133</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="135"/>
-      <c r="I8" s="149"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="144"/>
       <c r="J8" s="42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="145"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
+    <row r="9" spans="1:11" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="141"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
       <c r="G9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="136"/>
-      <c r="I9" s="151"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="145"/>
       <c r="J9" s="78" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="126.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="74">
         <v>5</v>
       </c>
@@ -16397,8 +16505,11 @@
       <c r="J10" s="20" t="s">
         <v>101</v>
       </c>
+      <c r="K10" s="157" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="74">
         <v>6</v>
       </c>
@@ -16424,7 +16535,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="74">
         <v>7</v>
       </c>
@@ -16454,7 +16565,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="74">
         <v>8</v>
       </c>
@@ -16480,7 +16591,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="74">
         <v>9</v>
       </c>
@@ -16507,8 +16618,11 @@
       <c r="J14" s="20" t="s">
         <v>123</v>
       </c>
+      <c r="K14" s="157" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="74">
         <v>10</v>
       </c>
@@ -16534,169 +16648,172 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="143">
+    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="140">
         <v>11</v>
       </c>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="140" t="s">
+      <c r="C16" s="97"/>
+      <c r="D16" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="140" t="s">
+      <c r="E16" s="149" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="140" t="s">
+      <c r="F16" s="149" t="s">
         <v>133</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>37</v>
       </c>
       <c r="H16" s="18"/>
-      <c r="I16" s="149" t="s">
+      <c r="I16" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="J16" s="135" t="s">
+      <c r="J16" s="105" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="144"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
+    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A17" s="148"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
       <c r="G17" s="18" t="s">
         <v>38</v>
       </c>
       <c r="H17" s="18"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="137"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="156"/>
     </row>
-    <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="144"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
+    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="148"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
       <c r="G18" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H18" s="18"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="137"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="156"/>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="A19" s="144"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
+    <row r="19" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A19" s="148"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
       <c r="G19" s="18" t="s">
         <v>40</v>
       </c>
       <c r="H19" s="18"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="137"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="156"/>
     </row>
-    <row r="20" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="144"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
+    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A20" s="148"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="137"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="156"/>
     </row>
-    <row r="21" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="145"/>
-      <c r="B21" s="145"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
+    <row r="21" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="141"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="136"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="106"/>
     </row>
-    <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="143">
+    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="140">
         <v>12</v>
       </c>
-      <c r="B22" s="143" t="s">
+      <c r="B22" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="146"/>
-      <c r="D22" s="91" t="s">
+      <c r="C22" s="153"/>
+      <c r="D22" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="91" t="s">
+      <c r="F22" s="103" t="s">
         <v>133</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>37</v>
       </c>
       <c r="H22" s="79"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="135" t="s">
+      <c r="I22" s="144"/>
+      <c r="J22" s="105" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A23" s="144"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
+    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A23" s="148"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
       <c r="G23" s="18" t="s">
         <v>38</v>
       </c>
       <c r="H23" s="18"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="137"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="156"/>
     </row>
-    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A24" s="144"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
+    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A24" s="148"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
       <c r="G24" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H24" s="80"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="137"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="156"/>
     </row>
-    <row r="25" spans="1:10" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="145"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="93"/>
+    <row r="25" spans="1:11" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="141"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="128"/>
       <c r="G25" s="18" t="s">
         <v>42</v>
       </c>
       <c r="H25" s="81"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="136"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="106"/>
     </row>
-    <row r="26" spans="1:10" ht="105.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="105.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="74">
         <v>13</v>
       </c>
@@ -16722,7 +16839,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="74">
         <v>14</v>
       </c>
@@ -16751,8 +16868,11 @@
       <c r="J27" s="20" t="s">
         <v>101</v>
       </c>
+      <c r="K27" s="157" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="74">
         <v>15</v>
       </c>
@@ -16781,52 +16901,58 @@
       <c r="J28" s="20" t="s">
         <v>101</v>
       </c>
+      <c r="K28" s="157" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="29" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="143">
+    <row r="29" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="140">
         <v>16</v>
       </c>
-      <c r="B29" s="143" t="s">
+      <c r="B29" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="127"/>
-      <c r="D29" s="140" t="s">
+      <c r="C29" s="97"/>
+      <c r="D29" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="140" t="s">
+      <c r="E29" s="149" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="140" t="s">
+      <c r="F29" s="149" t="s">
         <v>133</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="H29" s="135" t="s">
+      <c r="H29" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="149" t="s">
+      <c r="I29" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="J29" s="135" t="s">
+      <c r="J29" s="105" t="s">
         <v>101</v>
       </c>
+      <c r="K29" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="30" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="145"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
+    <row r="30" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="141"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
       <c r="G30" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H30" s="136"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="136"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="106"/>
     </row>
-    <row r="31" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="74">
         <v>17</v>
       </c>
@@ -16856,7 +16982,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="74">
         <v>18</v>
       </c>
@@ -16886,7 +17012,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="74">
         <v>19</v>
       </c>
@@ -16915,8 +17041,11 @@
       <c r="J33" s="20" t="s">
         <v>101</v>
       </c>
+      <c r="K33" s="157" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="74">
         <v>20</v>
       </c>
@@ -16945,44 +17074,22 @@
       <c r="J34" s="20" t="s">
         <v>101</v>
       </c>
+      <c r="K34" s="157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K39" t="s">
+        <v>160</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E29:E30"/>
     <mergeCell ref="J16:J21"/>
     <mergeCell ref="J22:J25"/>
     <mergeCell ref="J29:J30"/>
@@ -16998,8 +17105,44 @@
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/GV/ListaKPIS.xlsx
+++ b/GV/ListaKPIS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\GV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FB741B-8884-41CE-B567-6D49F5E23BAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC515AE-F2EF-4F7D-A43E-25431C640F48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cerdo" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="181">
   <si>
     <t>No.</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Costo diario de cerdo por corral</t>
-  </si>
-  <si>
-    <t>Tasa de mortalidad en corral (Nacimiento, Destete, Desarrollo)</t>
   </si>
   <si>
     <t>Perdida por muerte</t>
@@ -540,12 +537,75 @@
   <si>
     <t>La depresiacion, para que sea de una manera correcta de registro y control.</t>
   </si>
+  <si>
+    <t>Tasa de mortalidad en Destete</t>
+  </si>
+  <si>
+    <t>Tasa de mortalidad en Desarrollo</t>
+  </si>
+  <si>
+    <t>Tasa de mortalidad en Nacimiento (tercio)</t>
+  </si>
+  <si>
+    <t>Semanal / 3 semanal</t>
+  </si>
+  <si>
+    <t>Perdida por muerte en nacimientos (tercia)</t>
+  </si>
+  <si>
+    <t>Camda</t>
+  </si>
+  <si>
+    <t>Mortalidad al Parir</t>
+  </si>
+  <si>
+    <t>Mortalidad en gestación</t>
+  </si>
+  <si>
+    <t>Mortalidad en Lactancia</t>
+  </si>
+  <si>
+    <t>% de aborto primer tercio</t>
+  </si>
+  <si>
+    <t>% de aborto segundo tercio</t>
+  </si>
+  <si>
+    <t>% de aborto tercer tercio</t>
+  </si>
+  <si>
+    <t>% de fertilidad</t>
+  </si>
+  <si>
+    <t>Mortalidad momia</t>
+  </si>
+  <si>
+    <t>Moratalidad en remplazos</t>
+  </si>
+  <si>
+    <t>% de remplazo anual</t>
+  </si>
+  <si>
+    <t>% de reposición de sementales</t>
+  </si>
+  <si>
+    <t>Mortalidad celadores</t>
+  </si>
+  <si>
+    <t>Madres</t>
+  </si>
+  <si>
+    <t>Machos</t>
+  </si>
+  <si>
+    <t>Calidad de semen (motilidad)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,8 +752,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -727,6 +795,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF16969"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D2FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,7 +1210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1400,115 +1480,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1526,11 +1516,53 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1538,40 +1570,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1583,7 +1645,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1595,10 +1663,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1609,6 +1719,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF4D2FE"/>
+      <color rgb="FFEEBAFE"/>
       <color rgb="FFF16969"/>
     </mruColors>
   </colors>
@@ -2699,12 +2811,12 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1848304</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>621394</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2190856" cy="467564"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="2143151" cy="467564"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="113" name="CuadroTexto 112">
@@ -2718,8 +2830,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4213679" y="5558519"/>
-              <a:ext cx="2190856" cy="467564"/>
+              <a:off x="4229554" y="6676573"/>
+              <a:ext cx="2143151" cy="467564"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2817,16 +2929,16 @@
                           <m:t> </m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑐𝑎𝑚𝑎𝑑𝑎</m:t>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒𝑠𝑡𝑒𝑡𝑒</m:t>
                         </m:r>
                       </m:num>
                       <m:den>
@@ -2891,16 +3003,16 @@
                           <m:t> </m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑐𝑎𝑚𝑎𝑑𝑎</m:t>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒𝑠𝑡𝑒𝑡𝑒</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="es-MX" sz="1600" i="1">
@@ -2924,7 +3036,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="113" name="CuadroTexto 112">
@@ -2938,8 +3050,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4213679" y="5558519"/>
-              <a:ext cx="2190856" cy="467564"/>
+              <a:off x="4229554" y="6676573"/>
+              <a:ext cx="2143151" cy="467564"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2966,17 +3078,66 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-MX" sz="1600" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(𝑀𝑢𝑒𝑟𝑡𝑒𝑠 𝑒𝑛 𝑐𝑎𝑚𝑎𝑑𝑎)/( 𝑁𝑎𝑐𝑖𝑚𝑒𝑛𝑡𝑜 𝑒𝑛 𝑐𝑎𝑚𝑎𝑑𝑎.)</a:t>
+                <a:t>(𝑀𝑢𝑒𝑟𝑡𝑒𝑠 𝑒𝑛 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑𝑒𝑠𝑡𝑒𝑡𝑒)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑁𝑎𝑐𝑖𝑚𝑒𝑛𝑡𝑜 𝑒𝑛 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑𝑒𝑠𝑡𝑒𝑡𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>.)</a:t>
               </a:r>
               <a:endParaRPr lang="es-MX" sz="2400"/>
             </a:p>
@@ -2990,7 +3151,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>99785</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>256267</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5519653" cy="250453"/>
@@ -3395,7 +3556,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1592035</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2581669" cy="510524"/>
@@ -3735,7 +3896,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1945822</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>517072</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1949636" cy="509114"/>
@@ -4039,7 +4200,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2320018</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>415018</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="998607" cy="509114"/>
@@ -4283,7 +4444,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1980293</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>91168</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1555875" cy="510845"/>
@@ -4527,7 +4688,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1851025</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>612775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1906997" cy="467692"/>
@@ -4831,7 +4992,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1685925</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2371611" cy="467692"/>
@@ -5170,13 +5331,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1536700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1266825</xdr:rowOff>
+      <xdr:colOff>1604736</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>987879</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2417520" cy="483915"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="122" name="CuadroTexto 121">
@@ -5190,7 +5351,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3902075" y="18649950"/>
+              <a:off x="3985986" y="23793450"/>
               <a:ext cx="2417520" cy="483915"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5432,7 +5593,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="122" name="CuadroTexto 121">
@@ -5446,7 +5607,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3902075" y="18649950"/>
+              <a:off x="3985986" y="23793450"/>
               <a:ext cx="2417520" cy="483915"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5497,7 +5658,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5521,7 +5682,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5547,7 +5708,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3011274" cy="509114"/>
@@ -5875,7 +6036,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1412875</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2961388" cy="509114"/>
@@ -6239,7 +6400,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2722412" cy="509114"/>
@@ -6567,7 +6728,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>396875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2940805" cy="509114"/>
@@ -6955,7 +7116,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1952625</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>587375</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1738104" cy="507960"/>
@@ -7233,7 +7394,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1301750</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>746125</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3192990" cy="509114"/>
@@ -7549,7 +7710,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>930275</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>454025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3982565" cy="507960"/>
@@ -7899,7 +8060,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4038093" cy="507960"/>
@@ -8228,6 +8389,5627 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>(  ∑ 𝐶𝑜𝑠𝑡𝑜 𝐴𝑙𝑖𝑚𝑒𝑛𝑡𝑜 𝑐𝑜𝑛𝑠𝑢𝑚𝑖𝑑𝑜 𝑝𝑜𝑟 𝑚𝑎𝑟𝑟𝑎𝑛𝑎)/(∑▒𝑁𝑎𝑐𝑖𝑚𝑒𝑛𝑡𝑜𝑠)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1832429</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>210912</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2190856" cy="467564"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="CuadroTexto 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B2032E6-ABCF-412D-BB3A-3A613816461B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4213679" y="5368019"/>
+              <a:ext cx="2190856" cy="467564"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑀𝑢𝑒𝑟𝑡𝑒𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑐𝑎𝑚𝑎𝑑𝑎</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑁𝑎𝑐𝑖𝑚𝑒𝑛𝑡𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑐𝑎𝑚𝑎𝑑𝑎</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>.</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="CuadroTexto 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B2032E6-ABCF-412D-BB3A-3A613816461B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4213679" y="5368019"/>
+              <a:ext cx="2190856" cy="467564"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑀𝑢𝑒𝑟𝑡𝑒𝑠 𝑒𝑛 𝑐𝑎𝑚𝑎𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑎)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑁𝑎𝑐𝑖𝑚𝑒𝑛𝑡𝑜 𝑒𝑛 𝑐𝑎𝑚𝑎𝑑𝑎.)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1687286</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>789215</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2435347" cy="467564"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="CuadroTexto 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F63C4E4-A306-4B01-93A2-881854D76BE0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4068536" y="8803822"/>
+              <a:ext cx="2435347" cy="467564"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑀𝑢𝑒𝑟𝑡𝑒𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒𝑠𝑎𝑟𝑟𝑜𝑙𝑙𝑜</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑁𝑎𝑐𝑖𝑚𝑒𝑛𝑡𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒𝑠𝑎𝑟𝑟𝑜𝑙𝑙𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>.</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="CuadroTexto 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F63C4E4-A306-4B01-93A2-881854D76BE0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4068536" y="8803822"/>
+              <a:ext cx="2435347" cy="467564"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑀𝑢𝑒𝑟𝑡𝑒𝑠 𝑒𝑛 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑑𝑒𝑠𝑎𝑟𝑟𝑜𝑙𝑙𝑜)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑁𝑎𝑐𝑖𝑚𝑒𝑛𝑡𝑜 𝑒𝑛 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑𝑒𝑠𝑎𝑟𝑟𝑜𝑙𝑙𝑜</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>.)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>802822</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>911678</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4131066" cy="250453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="CuadroTexto 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21BEA45-B861-4492-BBA3-7E8A93D3D655}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3184072" y="11185071"/>
+              <a:ext cx="4131066" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝐶𝑜𝑠𝑡𝑜</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑘𝑖𝑙𝑜𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑑𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑐𝑎𝑚𝑎𝑑𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝐾𝑖𝑙𝑜𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑐𝑒𝑟𝑑𝑜</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑢𝑒𝑟𝑡𝑜</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-MX" sz="1600" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="CuadroTexto 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21BEA45-B861-4492-BBA3-7E8A93D3D655}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3184072" y="11185071"/>
+              <a:ext cx="4131066" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐶𝑜𝑠𝑡𝑜</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑘𝑖𝑙𝑜𝑠 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑𝑒 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑐𝑎𝑚𝑎𝑑𝑎∗𝐾𝑖𝑙𝑜𝑠 𝑐𝑒𝑟𝑑𝑜 𝑚𝑢𝑒𝑟𝑡𝑜 </a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1510393</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>272143</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2817503" cy="508985"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="CuadroTexto 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A765D23-83E8-409A-9F65-EE59D36F260E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4177393" y="38154429"/>
+              <a:ext cx="2817503" cy="508985"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑀𝑢𝑒𝑟𝑡𝑒𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>h𝑒𝑚𝑏𝑟𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑎𝑙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑃𝑎𝑟𝑖𝑟</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐻𝑒𝑚𝑏𝑟𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑞𝑢𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝𝑎𝑟𝑒𝑛</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="CuadroTexto 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A765D23-83E8-409A-9F65-EE59D36F260E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4177393" y="38154429"/>
+              <a:ext cx="2817503" cy="508985"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑀𝑢𝑒𝑟𝑡𝑒𝑠 𝑑𝑒 ℎ𝑒𝑚𝑏𝑟𝑎𝑠 𝑎𝑙 𝑃𝑎𝑟𝑖𝑟)/(𝐻𝑒𝑚𝑏𝑟𝑎𝑠 𝑞𝑢𝑒 𝑝𝑎𝑟𝑒𝑛)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3255635" cy="511935"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="CuadroTexto 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C191A3D5-5121-412A-A9E2-324D52693D78}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4286250" y="39038893"/>
+              <a:ext cx="3255635" cy="511935"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑀𝑢𝑒𝑟𝑡𝑒𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>h𝑒𝑚𝑏𝑟𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑔𝑒𝑠𝑡𝑎𝑐𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>ó</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐻𝑒𝑚𝑏𝑟𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑔𝑒𝑠𝑡𝑎𝑐𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>ó</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="CuadroTexto 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C191A3D5-5121-412A-A9E2-324D52693D78}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4286250" y="39038893"/>
+              <a:ext cx="3255635" cy="511935"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑀𝑢𝑒𝑟𝑡𝑒𝑠 𝑑𝑒 ℎ𝑒𝑚𝑏𝑟𝑎𝑠 𝑒𝑛 𝑔𝑒𝑠𝑡𝑎𝑐𝑖ó𝑛)/(𝐻𝑒𝑚𝑏𝑟𝑎𝑠 𝑒𝑛 𝑔𝑒𝑠𝑡𝑎𝑐𝑖ó𝑛)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1442357</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>231321</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3213957" cy="467564"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="CuadroTexto 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9138853-1C53-4849-9FAB-122B407B4455}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4109357" y="39991392"/>
+              <a:ext cx="3213957" cy="467564"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑀𝑢𝑒𝑟𝑡𝑒𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>h𝑒𝑚𝑏𝑟𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑙𝑎𝑐𝑡𝑎𝑛𝑐𝑖𝑎</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐻𝑒𝑚𝑏𝑟𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑙𝑎𝑐𝑡𝑎𝑛𝑐𝑖𝑎</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="CuadroTexto 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9138853-1C53-4849-9FAB-122B407B4455}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4109357" y="39991392"/>
+              <a:ext cx="3213957" cy="467564"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑀𝑢𝑒𝑟𝑡𝑒𝑠 𝑑𝑒 ℎ𝑒𝑚𝑏𝑟𝑎𝑠 𝑒𝑛 𝑙𝑎𝑐𝑡𝑎𝑛𝑐𝑖𝑎)/(𝐻𝑒𝑚𝑏𝑟𝑎𝑠 𝑒𝑛 𝑙𝑎𝑐𝑡𝑎𝑛𝑐𝑖𝑎)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1483178</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>272143</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3228833" cy="508985"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="CuadroTexto 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E29D60-69A1-4808-ACC4-9881B74ED369}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4150178" y="40971107"/>
+              <a:ext cx="3228833" cy="508985"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑀𝑢𝑒𝑟𝑡𝑒𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>h𝑒𝑚𝑏𝑟𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟𝑒𝑚𝑝𝑙𝑎𝑧𝑜</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐻𝑒𝑚𝑏𝑟𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟𝑒𝑚𝑝𝑙𝑎𝑧𝑜</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="CuadroTexto 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E29D60-69A1-4808-ACC4-9881B74ED369}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4150178" y="40971107"/>
+              <a:ext cx="3228833" cy="508985"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑀𝑢𝑒𝑟𝑡𝑒𝑠 𝑑𝑒 ℎ𝑒𝑚𝑏𝑟𝑎𝑠 𝑑𝑒 𝑟𝑒𝑚𝑝𝑙𝑎𝑧𝑜)/(𝐻𝑒𝑚𝑏𝑟𝑎𝑠 𝑑𝑒 𝑟𝑒𝑚𝑝𝑙𝑎𝑧𝑜)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>231321</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2656112" cy="508985"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="CuadroTexto 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{123B36F2-208E-4318-AC2A-80F41D3028A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4381500" y="41869178"/>
+              <a:ext cx="2656112" cy="508985"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐴𝑏𝑜𝑟𝑡𝑜𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝𝑟𝑖𝑚𝑒𝑟</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑡𝑒𝑟𝑐𝑖𝑜</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐸𝑚𝑏𝑎𝑟𝑎𝑧𝑜𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝𝑟𝑖𝑚𝑒𝑟</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑡𝑒𝑟𝑐𝑖𝑜</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="CuadroTexto 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{123B36F2-208E-4318-AC2A-80F41D3028A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4381500" y="41869178"/>
+              <a:ext cx="2656112" cy="508985"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐴𝑏𝑜𝑟𝑡𝑜𝑠 𝑒𝑛 𝑝𝑟𝑖𝑚𝑒𝑟 𝑡𝑒𝑟𝑐𝑖𝑜)/(𝐸𝑚𝑏𝑎𝑟𝑎𝑧𝑜𝑠 𝑒𝑛 𝑝𝑟𝑖𝑚𝑒𝑟 𝑡𝑒𝑟𝑐𝑖𝑜)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1662793</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>261257</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2793522" cy="510717"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="CuadroTexto 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43AF6168-C411-4BC9-ABB1-A9EE22EE6D60}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4329793" y="42838007"/>
+              <a:ext cx="2793522" cy="510717"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐴𝑏𝑜𝑟𝑡𝑜𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑠𝑒𝑔𝑢𝑛𝑑𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑡𝑒𝑟𝑐𝑖𝑜</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐸𝑚𝑏𝑎𝑟𝑎𝑧𝑜𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑠𝑒𝑔𝑢𝑛𝑑𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑡𝑒𝑟𝑐𝑖𝑜</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="CuadroTexto 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43AF6168-C411-4BC9-ABB1-A9EE22EE6D60}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4329793" y="42838007"/>
+              <a:ext cx="2793522" cy="510717"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐴𝑏𝑜𝑟𝑡𝑜𝑠 𝑒𝑛 𝑠𝑒𝑔𝑢𝑛𝑑𝑜 𝑡𝑒𝑟𝑐𝑖𝑜)/(𝐸𝑚𝑏𝑎𝑟𝑎𝑧𝑜𝑠 𝑒𝑛 𝑠𝑒𝑔𝑢𝑛𝑑𝑜 𝑡𝑒𝑟𝑐𝑖𝑜)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1469572</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2581861" cy="467564"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="CuadroTexto 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D63DDF4-4DEF-4D93-A695-2A8D7984B7A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4136572" y="43746965"/>
+              <a:ext cx="2581861" cy="467564"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐴𝑏𝑜𝑟𝑡𝑜𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑡𝑒𝑟𝑐𝑒𝑟</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑡𝑒𝑟𝑐𝑖𝑜</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐸𝑚𝑏𝑎𝑟𝑎𝑧𝑜𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑡𝑒𝑟𝑐𝑒𝑟</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑡𝑒𝑟𝑐𝑖𝑜</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="CuadroTexto 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D63DDF4-4DEF-4D93-A695-2A8D7984B7A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4136572" y="43746965"/>
+              <a:ext cx="2581861" cy="467564"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐴𝑏𝑜𝑟𝑡𝑜𝑠 𝑒𝑛 𝑡𝑒𝑟𝑐𝑒𝑟 𝑡𝑒𝑟𝑐𝑖𝑜)/(𝐸𝑚𝑏𝑎𝑟𝑎𝑧𝑜𝑠 𝑒𝑛 𝑡𝑒𝑟𝑐𝑒𝑟 𝑡𝑒𝑟𝑐𝑖𝑜)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1537607</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2882649" cy="467564"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="CuadroTexto 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10515F21-FC9D-4C95-AC8B-C05269A51E8A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4204607" y="44604214"/>
+              <a:ext cx="2882649" cy="467564"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐻𝑒𝑚𝑏𝑟𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛𝑢𝑒𝑣𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟𝑒𝑚𝑝𝑙𝑎𝑧𝑜</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐻𝑒𝑚𝑏𝑟𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑢𝑠𝑜</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="CuadroTexto 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10515F21-FC9D-4C95-AC8B-C05269A51E8A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4204607" y="44604214"/>
+              <a:ext cx="2882649" cy="467564"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐻𝑒𝑚𝑏𝑟𝑎𝑠 𝑛𝑢𝑒𝑣𝑎𝑠 𝑑𝑒 𝑟𝑒𝑚𝑝𝑙𝑎𝑧𝑜)/(𝐻𝑒𝑚𝑏𝑟𝑎𝑠 𝑒𝑛 𝑢𝑠𝑜)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1349828</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>274864</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3239285" cy="510653"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="CuadroTexto 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C909CAFC-74AB-4BA8-B59E-87C391E1D5BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4016828" y="46103721"/>
+              <a:ext cx="3239285" cy="510653"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐻𝑒𝑚𝑏𝑟𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝𝑟𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>ñ</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑎𝑑𝑎𝑠</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐻𝑒𝑚𝑏𝑟𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑞𝑢𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑓𝑢𝑒𝑟𝑜𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑛𝑠𝑒𝑚𝑖𝑛𝑎𝑑𝑎𝑠</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="CuadroTexto 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C909CAFC-74AB-4BA8-B59E-87C391E1D5BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4016828" y="46103721"/>
+              <a:ext cx="3239285" cy="510653"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐻𝑒𝑚𝑏𝑟𝑎𝑠 𝑝𝑟𝑒ñ𝑎𝑑𝑎𝑠)/(𝐻𝑒𝑚𝑏𝑟𝑎𝑠 𝑞𝑢𝑒 𝑓𝑢𝑒𝑟𝑜𝑛 𝑒𝑛𝑠𝑒𝑚𝑖𝑛𝑎𝑑𝑎𝑠)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1583871</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>263979</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2965427" cy="510204"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="CuadroTexto 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F963270-8AF5-4282-8070-4BAD33FC8AC6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4250871" y="47045336"/>
+              <a:ext cx="2965427" cy="510204"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑀𝑎𝑐h𝑜𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟𝑒𝑝𝑜𝑠𝑖𝑐𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>ó</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑀𝑎𝑐h𝑜𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑠𝑒𝑚𝑒𝑛𝑡𝑎𝑙𝑒𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑞𝑢𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑠𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑢𝑠𝑎𝑛</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="CuadroTexto 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F963270-8AF5-4282-8070-4BAD33FC8AC6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4250871" y="47045336"/>
+              <a:ext cx="2965427" cy="510204"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑀𝑎𝑐ℎ𝑜𝑠 𝑑𝑒 𝑟𝑒𝑝𝑜𝑠𝑖𝑐𝑖ó𝑛)/(𝑀𝑎𝑐ℎ𝑜𝑠 𝑠𝑒𝑚𝑒𝑛𝑡𝑎𝑙𝑒𝑠 𝑞𝑢𝑒 𝑠𝑒 𝑢𝑠𝑎𝑛)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1477735</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>212272</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2784159" cy="467564"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="CuadroTexto 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8876D874-BED9-480A-89E3-6763BF17F45D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4144735" y="47946129"/>
+              <a:ext cx="2784159" cy="467564"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑀𝑢𝑒𝑟𝑡𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑀𝑎𝑐h𝑜𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑐𝑒𝑙𝑎𝑑𝑜𝑟𝑒𝑠</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑀𝑎𝑐h𝑜𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑐𝑒𝑙𝑎𝑑𝑜𝑟𝑒𝑠</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="CuadroTexto 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8876D874-BED9-480A-89E3-6763BF17F45D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4144735" y="47946129"/>
+              <a:ext cx="2784159" cy="467564"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑀𝑢𝑒𝑟𝑡𝑒 𝑑𝑒 𝑀𝑎𝑐ℎ𝑜𝑠 𝑐𝑒𝑙𝑎𝑑𝑜𝑟𝑒𝑠)/(𝑀𝑎𝑐ℎ𝑜𝑠 𝑐𝑒𝑙𝑎𝑑𝑜𝑟𝑒𝑠)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1466849</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>269422</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2545569" cy="467564"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="CuadroTexto 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D91649A-3EC1-4D59-AB89-4C1644010472}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4133849" y="48955779"/>
+              <a:ext cx="2545569" cy="467564"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶𝑒𝑙𝑢𝑙𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑜𝑣𝑖𝑙𝑒𝑠</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑀𝑢𝑒𝑠𝑡𝑟𝑎</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑐𝑒𝑙𝑢𝑙𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑡𝑜𝑚𝑎𝑑𝑠</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="CuadroTexto 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D91649A-3EC1-4D59-AB89-4C1644010472}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4133849" y="48955779"/>
+              <a:ext cx="2545569" cy="467564"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐶𝑒𝑙𝑢𝑙𝑎𝑠 𝑚𝑜𝑣𝑖𝑙𝑒𝑠)/(𝑀𝑢𝑒𝑠𝑡𝑟𝑎 𝑑𝑒 𝑐𝑒𝑙𝑢𝑙𝑎𝑠 𝑡𝑜𝑚𝑎𝑑𝑠)</a:t>
               </a:r>
               <a:endParaRPr lang="es-MX" sz="1600">
                 <a:solidFill>
@@ -15226,39 +21008,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F4"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="85.109375" customWidth="1"/>
-    <col min="4" max="6" width="30.88671875" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1"/>
-    <col min="8" max="8" width="31.33203125" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" customWidth="1"/>
-    <col min="10" max="10" width="43.44140625" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="85.140625" customWidth="1"/>
+    <col min="4" max="6" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
+    <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
     </row>
-    <row r="2" spans="1:11" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -15269,966 +21051,1097 @@
         <v>2</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="91">
+    <row r="3" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="109">
         <v>1</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="101" t="s">
+      <c r="C3" s="111"/>
+      <c r="D3" s="138" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="138" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="138" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="126"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="110"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="129"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="109">
+        <v>2</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="111"/>
+      <c r="D5" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E5" s="136" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="42" t="s">
-        <v>105</v>
+      <c r="F5" s="136" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="126"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="62" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="92"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="61" t="s">
-        <v>103</v>
+    <row r="6" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="110"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="129"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="61" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="91">
-        <v>2</v>
-      </c>
-      <c r="B5" s="93" t="s">
+    <row r="7" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="109">
+        <v>3</v>
+      </c>
+      <c r="B7" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="111"/>
+      <c r="D7" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="107" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="107" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="97"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="62" t="s">
-        <v>103</v>
+      <c r="H7" s="126"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="101" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="92"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="98"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="61" t="s">
-        <v>100</v>
-      </c>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="110"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="102"/>
     </row>
-    <row r="7" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="91">
-        <v>3</v>
-      </c>
-      <c r="B7" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="103" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="103" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="131" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="92"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="132"/>
-    </row>
-    <row r="9" spans="1:11" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
+    <row r="9" spans="1:11" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="91">
         <v>4</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" t="s">
-        <v>142</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G9" s="92"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="160"/>
     </row>
-    <row r="10" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
+    <row r="10" spans="1:11" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="91">
         <v>5</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" t="s">
-        <v>143</v>
-      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="160"/>
     </row>
-    <row r="11" spans="1:11" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>6</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="88" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>67</v>
+      <c r="F11" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>89</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="91">
         <v>7</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="63"/>
+    </row>
+    <row r="13" spans="1:11" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="91">
+        <v>8</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="92"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="63"/>
+    </row>
+    <row r="14" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>9</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="111" t="s">
+      <c r="B14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>10</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="42" t="s">
+      <c r="E15" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="109">
+        <v>11</v>
+      </c>
+      <c r="B16" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="111"/>
+      <c r="D16" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="113"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="110"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="114"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="109">
+        <v>12</v>
+      </c>
+      <c r="B18" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="111"/>
+      <c r="D18" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="132"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="110"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="133"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>13</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="109">
+        <v>14</v>
+      </c>
+      <c r="B21" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="107"/>
+      <c r="D21" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="110"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="109">
+        <v>15</v>
+      </c>
+      <c r="B23" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="107"/>
+      <c r="D23" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="131"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="110"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="96" x14ac:dyDescent="0.25">
+      <c r="A26" s="109">
+        <v>16</v>
+      </c>
+      <c r="B26" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="107"/>
+      <c r="D26" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" s="66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="110"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>17</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="133"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="62" t="s">
-        <v>101</v>
+      <c r="I28" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28" s="71" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="92"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="134"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="61" t="s">
-        <v>103</v>
+    <row r="29" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>18</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" s="69" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="91">
-        <v>8</v>
-      </c>
-      <c r="B14" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="103" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="109"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="62" t="s">
-        <v>101</v>
+    <row r="30" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>19</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30" s="69" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="92"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="110"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="61" t="s">
-        <v>105</v>
-      </c>
+    <row r="31" spans="1:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="162" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="164"/>
     </row>
-    <row r="16" spans="1:11" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>9</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="14" t="s">
+    <row r="32" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="109">
+        <v>20</v>
+      </c>
+      <c r="B32" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="126"/>
+      <c r="D32" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="119"/>
+      <c r="H32" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="J32" s="72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="110"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="K33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="109">
+        <v>21</v>
+      </c>
+      <c r="B34" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="121"/>
+      <c r="D34" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="88" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16" s="64" t="s">
-        <v>106</v>
+      <c r="E34" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="119"/>
+      <c r="H34" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" s="72" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="91">
-        <v>10</v>
-      </c>
-      <c r="B17" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="111" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" t="s">
-        <v>145</v>
+    <row r="35" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="110"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="92"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="61" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="91">
-        <v>11</v>
-      </c>
-      <c r="B19" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="111" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="103" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" s="65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="117"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="92"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="J21" s="70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="96" x14ac:dyDescent="0.3">
-      <c r="A22" s="91">
-        <v>12</v>
-      </c>
-      <c r="B22" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="103" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22" s="66" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="92"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23" s="67" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
-        <v>13</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="90" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" s="56" t="s">
+    <row r="36" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+      <c r="A36" s="123">
+        <v>22</v>
+      </c>
+      <c r="B36" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="126"/>
+      <c r="D36" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="119"/>
+      <c r="H36" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="J24" s="71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10">
-        <v>14</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="90" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="I25" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10">
-        <v>15</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="88" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="88" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="I26" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="J26" s="69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="91">
-        <v>16</v>
-      </c>
-      <c r="B27" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="126" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="126" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" s="135"/>
-      <c r="H27" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="I27" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="J27" s="72" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="92"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="I28" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="J28" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="K28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91">
-        <v>17</v>
-      </c>
-      <c r="B29" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="111" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="126" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="126" t="s">
-        <v>133</v>
-      </c>
-      <c r="G29" s="135"/>
-      <c r="H29" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="I29" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="J29" s="72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="92"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="I30" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="J30" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="K30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="118">
-        <v>18</v>
-      </c>
-      <c r="B31" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="97"/>
-      <c r="D31" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="126" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="126" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31" s="135"/>
-      <c r="H31" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="I31" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="J31" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="K31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="122"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I32" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="J32" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="K32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="118">
-        <v>19</v>
-      </c>
-      <c r="B33" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="95"/>
-      <c r="D33" s="111" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" s="126" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="126" t="s">
-        <v>133</v>
-      </c>
-      <c r="G33" s="135"/>
-      <c r="H33" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="I33" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="J33" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="K33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="119"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="J34" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="K34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="118">
-        <v>20</v>
-      </c>
-      <c r="B35" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="113"/>
-      <c r="D35" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="126" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" s="126" t="s">
-        <v>133</v>
-      </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="I35" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="J35" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="K35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="119"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I36" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="J36" s="73" t="s">
-        <v>101</v>
+      <c r="J36" s="72" t="s">
+        <v>100</v>
       </c>
       <c r="K36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G37" s="23"/>
+    <row r="37" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="124"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="K37" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G38" s="125"/>
+    <row r="38" spans="1:11" ht="96" x14ac:dyDescent="0.25">
+      <c r="A38" s="123">
+        <v>23</v>
+      </c>
+      <c r="B38" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="111"/>
+      <c r="D38" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="G38" s="119"/>
+      <c r="H38" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I38" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="J38" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="K38" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G39" s="125"/>
+    <row r="39" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="128"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="J39" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="K39" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K43" t="s">
-        <v>159</v>
+    <row r="40" spans="1:11" ht="96" x14ac:dyDescent="0.25">
+      <c r="A40" s="123">
+        <v>24</v>
+      </c>
+      <c r="B40" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="107"/>
+      <c r="D40" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="24"/>
+      <c r="H40" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="J40" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="K40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="128"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I41" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="J41" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="K41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
+        <v>23</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" s="23"/>
+    </row>
+    <row r="43" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
+        <v>24</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G43" s="118"/>
+    </row>
+    <row r="44" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>25</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G44" s="118"/>
+    </row>
+    <row r="45" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
+        <v>26</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
+        <v>27</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>28</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
+        <v>29</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="K48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
+        <v>30</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="165" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" s="166"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
+      <c r="E50" s="166"/>
+      <c r="F50" s="166"/>
+      <c r="G50" s="166"/>
+      <c r="H50" s="166"/>
+      <c r="I50" s="166"/>
+      <c r="J50" s="167"/>
+      <c r="K50" s="161"/>
+    </row>
+    <row r="51" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
+        <v>31</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
+        <v>32</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11">
+        <v>33</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11">
+        <v>34</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
+  <mergeCells count="97">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="A5:A6"/>
@@ -16240,14 +22153,82 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16259,37 +22240,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F946AF-EA2C-4AD8-AAD4-A337D6559201}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="75.109375" customWidth="1"/>
-    <col min="4" max="6" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" customWidth="1"/>
+    <col min="4" max="6" width="37.7109375" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="37.5546875" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
-    <col min="10" max="10" width="39.6640625" customWidth="1"/>
-    <col min="11" max="11" width="80.88671875" customWidth="1"/>
+    <col min="8" max="8" width="37.5703125" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" customWidth="1"/>
+    <col min="11" max="11" width="80.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="137" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="139"/>
+    <row r="1" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="159"/>
       <c r="J1" s="76"/>
     </row>
-    <row r="2" spans="1:11" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
@@ -16300,796 +22281,831 @@
         <v>2</v>
       </c>
       <c r="D2" s="75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" s="75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" s="75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="75" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J2" s="87" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="74">
         <v>1</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="33"/>
       <c r="J3" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="140">
+    <row r="4" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="146">
         <v>2</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="155"/>
+      <c r="D4" s="141" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="141" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="141" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="146" t="s">
+      <c r="H4" s="134"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="148"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="135"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="146">
+        <v>3</v>
+      </c>
+      <c r="B6" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="155"/>
+      <c r="D6" s="141" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="105"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" t="s">
-        <v>157</v>
+      <c r="F6" s="141" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="134"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="42" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="141"/>
-      <c r="B5" s="141"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="78" t="s">
-        <v>101</v>
+    <row r="7" spans="1:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="148"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="135"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="78" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="140">
-        <v>3</v>
-      </c>
-      <c r="B6" s="140" t="s">
+    <row r="8" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="146">
+        <v>4</v>
+      </c>
+      <c r="B8" s="146" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="155"/>
+      <c r="D8" s="141" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="141" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="141" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="142"/>
-      <c r="D6" s="146" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="146" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="105"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="42" t="s">
-        <v>103</v>
+      <c r="H8" s="134"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="42" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="141"/>
-      <c r="B7" s="141"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="78" t="s">
-        <v>101</v>
+    <row r="9" spans="1:11" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="148"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="135"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="78" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="140">
-        <v>4</v>
-      </c>
-      <c r="B8" s="140" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="146" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="146" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="105"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="141"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="106"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="126.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="74">
         <v>5</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" s="157" t="s">
-        <v>150</v>
+        <v>100</v>
+      </c>
+      <c r="K10" s="93" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="74">
         <v>6</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="33"/>
       <c r="J11" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="74">
         <v>7</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="74">
         <v>8</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="33"/>
       <c r="J13" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="74">
         <v>9</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="85" t="s">
         <v>132</v>
-      </c>
-      <c r="E14" s="85" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="85" t="s">
-        <v>133</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="K14" s="157" t="s">
-        <v>158</v>
+      <c r="K14" s="93" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74">
         <v>10</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="33"/>
       <c r="J15" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="140">
+    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="146">
         <v>11</v>
       </c>
-      <c r="B16" s="140" t="s">
+      <c r="B16" s="146" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="126"/>
+      <c r="D16" s="143" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="143" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="149" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="149" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="149" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="18" t="s">
+      <c r="H16" s="18"/>
+      <c r="I16" s="152" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="134" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="147"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="144" t="s">
-        <v>125</v>
-      </c>
-      <c r="J16" s="105" t="s">
-        <v>101</v>
-      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="140"/>
     </row>
-    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="148"/>
-      <c r="B17" s="148"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="18" t="s">
+    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="147"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="156"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="140"/>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="148"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="18" t="s">
+    <row r="19" spans="1:11" ht="42" x14ac:dyDescent="0.25">
+      <c r="A19" s="147"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="156"/>
-      <c r="K18" t="s">
-        <v>151</v>
-      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="140"/>
     </row>
-    <row r="19" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A19" s="148"/>
-      <c r="B19" s="148"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="156"/>
-    </row>
-    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="148"/>
-      <c r="B20" s="148"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
+    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="147"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="156"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="140"/>
     </row>
-    <row r="21" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="141"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
+    <row r="21" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="148"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="106"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="135"/>
     </row>
-    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="140">
+    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="146">
         <v>12</v>
       </c>
-      <c r="B22" s="140" t="s">
+      <c r="B22" s="146" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="149"/>
+      <c r="D22" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="79"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="134" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="147"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="140"/>
+    </row>
+    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="147"/>
+      <c r="B24" s="147"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="80"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="140"/>
+    </row>
+    <row r="25" spans="1:11" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="148"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="103" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="103" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="79"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="105" t="s">
-        <v>101</v>
-      </c>
+      <c r="H25" s="81"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="135"/>
     </row>
-    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A23" s="148"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="156"/>
-    </row>
-    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A24" s="148"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="80"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="156"/>
-    </row>
-    <row r="25" spans="1:11" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="141"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="81"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="106"/>
-    </row>
-    <row r="26" spans="1:11" ht="105.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="74">
         <v>13</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="77"/>
       <c r="D26" s="86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="86" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F26" s="89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G26" s="82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H26" s="83"/>
       <c r="I26" s="84"/>
       <c r="J26" s="82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="74">
         <v>14</v>
       </c>
       <c r="B27" s="75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G27" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="19" t="s">
-        <v>46</v>
-      </c>
       <c r="I27" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="K27" s="157" t="s">
-        <v>152</v>
+        <v>100</v>
+      </c>
+      <c r="K27" s="93" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="74">
         <v>15</v>
       </c>
       <c r="B28" s="75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="146">
+        <v>16</v>
+      </c>
+      <c r="B29" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="K28" s="157" t="s">
+      <c r="C29" s="126"/>
+      <c r="D29" s="143" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="143" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="134" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="152" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="K29" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="140">
-        <v>16</v>
-      </c>
-      <c r="B29" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="97"/>
-      <c r="D29" s="149" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="149" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="149" t="s">
-        <v>133</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="144" t="s">
-        <v>94</v>
-      </c>
-      <c r="J29" s="105" t="s">
-        <v>101</v>
-      </c>
-      <c r="K29" t="s">
-        <v>154</v>
-      </c>
+    <row r="30" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="148"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="135"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="135"/>
     </row>
-    <row r="30" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="141"/>
-      <c r="B30" s="141"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="106"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="106"/>
-    </row>
-    <row r="31" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="74">
         <v>17</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="74">
         <v>18</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="74">
         <v>19</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="K33" s="157" t="s">
-        <v>155</v>
+        <v>100</v>
+      </c>
+      <c r="K33" s="93" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="74">
         <v>20</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="K34" s="157" t="s">
-        <v>156</v>
+        <v>100</v>
+      </c>
+      <c r="K34" s="93" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K39" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="J16:J21"/>
     <mergeCell ref="J22:J25"/>
     <mergeCell ref="J29:J30"/>
@@ -17105,41 +23121,6 @@
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GV/ListaKPIS.xlsx
+++ b/GV/ListaKPIS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\GV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC515AE-F2EF-4F7D-A43E-25431C640F48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F459E54A-4FC9-4C35-A1A1-45F61E60E892}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cerdo" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="184">
   <si>
     <t>No.</t>
   </si>
@@ -600,6 +600,15 @@
   <si>
     <t>Calidad de semen (motilidad)</t>
   </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Datos extras fuera de siman</t>
+  </si>
+  <si>
+    <t>Tenemos a la mitad</t>
+  </si>
 </sst>
 </file>
 
@@ -761,7 +770,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,6 +816,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,7 +1225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1489,204 +1504,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1711,6 +1528,224 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2815,8 +2850,8 @@
       <xdr:rowOff>621394</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2143151" cy="467564"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="113" name="CuadroTexto 112">
@@ -3036,7 +3071,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="113" name="CuadroTexto 112">
@@ -5336,8 +5371,8 @@
       <xdr:rowOff>987879</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2417520" cy="483915"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="122" name="CuadroTexto 121">
@@ -5593,7 +5628,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="122" name="CuadroTexto 121">
@@ -8414,8 +8449,8 @@
       <xdr:rowOff>210912</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2190856" cy="467564"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -8635,7 +8670,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -8730,8 +8765,8 @@
       <xdr:rowOff>789215</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2435347" cy="467564"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="CuadroTexto 22">
@@ -8951,7 +8986,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="CuadroTexto 22">
@@ -9070,8 +9105,8 @@
       <xdr:rowOff>911678</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4131066" cy="250453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="CuadroTexto 23">
@@ -9320,7 +9355,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="CuadroTexto 23">
@@ -9451,8 +9486,8 @@
       <xdr:rowOff>272143</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2817503" cy="508985"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="CuadroTexto 24">
@@ -9732,7 +9767,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="CuadroTexto 24">
@@ -9839,8 +9874,8 @@
       <xdr:rowOff>217714</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3255635" cy="511935"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="CuadroTexto 25">
@@ -10168,7 +10203,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="CuadroTexto 25">
@@ -10275,8 +10310,8 @@
       <xdr:rowOff>231321</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3213957" cy="467564"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="CuadroTexto 26">
@@ -10556,7 +10591,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="CuadroTexto 26">
@@ -10663,8 +10698,8 @@
       <xdr:rowOff>272143</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3228833" cy="508985"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="CuadroTexto 27">
@@ -10944,7 +10979,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="CuadroTexto 27">
@@ -11051,8 +11086,8 @@
       <xdr:rowOff>231321</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2656112" cy="508985"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="CuadroTexto 28">
@@ -11332,7 +11367,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="CuadroTexto 28">
@@ -11439,8 +11474,8 @@
       <xdr:rowOff>261257</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2793522" cy="510717"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="CuadroTexto 29">
@@ -11720,7 +11755,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="CuadroTexto 29">
@@ -11827,8 +11862,8 @@
       <xdr:rowOff>231322</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2581861" cy="467564"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="CuadroTexto 30">
@@ -12108,7 +12143,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="CuadroTexto 30">
@@ -12215,8 +12250,8 @@
       <xdr:rowOff>149678</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2882649" cy="467564"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="CuadroTexto 32">
@@ -12472,7 +12507,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="CuadroTexto 32">
@@ -12579,8 +12614,8 @@
       <xdr:rowOff>274864</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3239285" cy="510653"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="CuadroTexto 33">
@@ -12836,7 +12871,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="CuadroTexto 33">
@@ -12943,8 +12978,8 @@
       <xdr:rowOff>263979</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2965427" cy="510204"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="CuadroTexto 34">
@@ -13248,7 +13283,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="CuadroTexto 34">
@@ -13355,8 +13390,8 @@
       <xdr:rowOff>212272</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2784159" cy="467564"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="CuadroTexto 35">
@@ -13588,7 +13623,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="CuadroTexto 35">
@@ -13695,8 +13730,8 @@
       <xdr:rowOff>269422</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2545569" cy="467564"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="37" name="CuadroTexto 36">
@@ -13928,7 +13963,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="37" name="CuadroTexto 36">
@@ -21008,39 +21043,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="85.140625" customWidth="1"/>
-    <col min="4" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="85.109375" customWidth="1"/>
+    <col min="4" max="6" width="30.88671875" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="10" max="10" width="43.44140625" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
     </row>
-    <row r="2" spans="1:11" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -21072,133 +21107,141 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="109">
+    <row r="3" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="102">
         <v>1</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="138" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="138" t="s">
+      <c r="E3" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="112" t="s">
         <v>132</v>
       </c>
       <c r="G3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="126"/>
-      <c r="I3" s="115"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="110"/>
       <c r="J3" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="110"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
+    <row r="4" spans="1:13" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="103"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
       <c r="G4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="116"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="111"/>
       <c r="J4" s="61" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="109">
+    <row r="5" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="102">
         <v>2</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="136" t="s">
+      <c r="C5" s="106"/>
+      <c r="D5" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="E5" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="118" t="s">
         <v>132</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="126"/>
-      <c r="I5" s="115"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="110"/>
       <c r="J5" s="62" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="110"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
+    <row r="6" spans="1:13" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
       <c r="G6" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="129"/>
-      <c r="I6" s="116"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="111"/>
       <c r="J6" s="61" t="s">
         <v>99</v>
       </c>
+      <c r="L6" s="175"/>
+      <c r="M6" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="109">
+    <row r="7" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="102">
         <v>3</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="96" t="s">
+      <c r="C7" s="106"/>
+      <c r="D7" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="134" t="s">
+      <c r="G7" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="126"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="101" t="s">
+      <c r="H7" s="108"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="143" t="s">
         <v>100</v>
       </c>
+      <c r="L7" s="174"/>
+      <c r="M7" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="110"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="102"/>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="144"/>
     </row>
-    <row r="9" spans="1:11" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="91">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="167" t="s">
         <v>162</v>
       </c>
       <c r="C9" s="2"/>
@@ -21214,13 +21257,13 @@
       <c r="G9" s="92"/>
       <c r="H9" s="1"/>
       <c r="I9" s="49"/>
-      <c r="J9" s="160"/>
+      <c r="J9" s="94"/>
     </row>
-    <row r="10" spans="1:11" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="91">
         <v>5</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="167" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="2"/>
@@ -21230,9 +21273,9 @@
       <c r="G10" s="92"/>
       <c r="H10" s="1"/>
       <c r="I10" s="49"/>
-      <c r="J10" s="160"/>
+      <c r="J10" s="94"/>
     </row>
-    <row r="11" spans="1:11" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>6</v>
       </c>
@@ -21265,7 +21308,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="91">
         <v>7</v>
       </c>
@@ -21285,11 +21328,11 @@
       <c r="I12" s="47"/>
       <c r="J12" s="63"/>
     </row>
-    <row r="13" spans="1:11" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="91">
         <v>8</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="167" t="s">
         <v>164</v>
       </c>
       <c r="C13" s="2"/>
@@ -21307,7 +21350,7 @@
       <c r="I13" s="47"/>
       <c r="J13" s="63"/>
     </row>
-    <row r="14" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>9</v>
       </c>
@@ -21338,7 +21381,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>10</v>
       </c>
@@ -21371,91 +21414,91 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="109">
+    <row r="16" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="102">
         <v>11</v>
       </c>
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="105" t="s">
+      <c r="C16" s="106"/>
+      <c r="D16" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="96" t="s">
+      <c r="E16" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="96" t="s">
+      <c r="F16" s="114" t="s">
         <v>132</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="113"/>
-      <c r="I16" s="115"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="110"/>
       <c r="J16" s="62" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="110"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
+    <row r="17" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="103"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
       <c r="G17" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="114"/>
-      <c r="I17" s="116"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="111"/>
       <c r="J17" s="61" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="109">
+    <row r="18" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="102">
         <v>12</v>
       </c>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="96" t="s">
+      <c r="C18" s="106"/>
+      <c r="D18" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="96" t="s">
+      <c r="E18" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="96" t="s">
+      <c r="F18" s="114" t="s">
         <v>132</v>
       </c>
       <c r="G18" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="132"/>
+      <c r="H18" s="120"/>
       <c r="I18" s="23"/>
       <c r="J18" s="62" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="110"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
+    <row r="19" spans="1:11" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="103"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
       <c r="G19" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="133"/>
+      <c r="H19" s="121"/>
       <c r="I19" s="49"/>
       <c r="J19" s="61" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>13</v>
       </c>
@@ -21485,21 +21528,21 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="109">
+    <row r="21" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="102">
         <v>14</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="105" t="s">
+      <c r="C21" s="124"/>
+      <c r="D21" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="96" t="s">
+      <c r="E21" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="96" t="s">
+      <c r="F21" s="114" t="s">
         <v>132</v>
       </c>
       <c r="G21" s="42" t="s">
@@ -21518,13 +21561,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="110"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
+    <row r="22" spans="1:11" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="103"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
       <c r="G22" s="27" t="s">
         <v>66</v>
       </c>
@@ -21534,21 +21577,21 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="109">
+    <row r="23" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="102">
         <v>15</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="105" t="s">
+      <c r="C23" s="124"/>
+      <c r="D23" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="96" t="s">
+      <c r="E23" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="96" t="s">
+      <c r="F23" s="114" t="s">
         <v>132</v>
       </c>
       <c r="G23" s="42" t="s">
@@ -21564,13 +21607,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="131"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
+    <row r="24" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="127"/>
+      <c r="B24" s="172"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
       <c r="G24" s="43" t="s">
         <v>65</v>
       </c>
@@ -21587,13 +21630,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="110"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
+    <row r="25" spans="1:11" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="103"/>
+      <c r="B25" s="173"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
       <c r="G25" s="25"/>
       <c r="H25" s="31" t="s">
         <v>80</v>
@@ -21605,21 +21648,21 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="96" x14ac:dyDescent="0.25">
-      <c r="A26" s="109">
+    <row r="26" spans="1:11" ht="96" x14ac:dyDescent="0.3">
+      <c r="A26" s="102">
         <v>16</v>
       </c>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="96" t="s">
+      <c r="C26" s="124"/>
+      <c r="D26" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="96" t="s">
+      <c r="E26" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="F26" s="96" t="s">
+      <c r="F26" s="114" t="s">
         <v>132</v>
       </c>
       <c r="G26" s="42" t="s">
@@ -21635,13 +21678,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="110"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
+    <row r="27" spans="1:11" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="103"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
       <c r="G27" s="27" t="s">
         <v>65</v>
       </c>
@@ -21655,7 +21698,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>17</v>
       </c>
@@ -21685,7 +21728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>18</v>
       </c>
@@ -21715,7 +21758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>19</v>
       </c>
@@ -21745,38 +21788,38 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="162" t="s">
+    <row r="31" spans="1:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="163"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="164"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="98"/>
     </row>
-    <row r="32" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="109">
+    <row r="32" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="102">
         <v>20</v>
       </c>
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="126"/>
-      <c r="D32" s="105" t="s">
+      <c r="C32" s="108"/>
+      <c r="D32" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="94" t="s">
+      <c r="E32" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="F32" s="94" t="s">
+      <c r="F32" s="136" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="119"/>
+      <c r="G32" s="138"/>
       <c r="H32" s="35" t="s">
         <v>83</v>
       </c>
@@ -21787,14 +21830,14 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="110"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="120"/>
+    <row r="33" spans="1:11" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="103"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="139"/>
       <c r="H33" s="37" t="s">
         <v>84</v>
       </c>
@@ -21808,24 +21851,24 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="109">
+    <row r="34" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="102">
         <v>21</v>
       </c>
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="121"/>
-      <c r="D34" s="105" t="s">
+      <c r="C34" s="130"/>
+      <c r="D34" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="94" t="s">
+      <c r="E34" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="94" t="s">
+      <c r="F34" s="136" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="119"/>
+      <c r="G34" s="138"/>
       <c r="H34" s="28" t="s">
         <v>72</v>
       </c>
@@ -21836,14 +21879,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="110"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="120"/>
+    <row r="35" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="103"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="139"/>
       <c r="H35" s="32" t="s">
         <v>85</v>
       </c>
@@ -21857,24 +21900,24 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="84" x14ac:dyDescent="0.25">
-      <c r="A36" s="123">
+    <row r="36" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="128">
         <v>22</v>
       </c>
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="126"/>
-      <c r="D36" s="105" t="s">
+      <c r="C36" s="108"/>
+      <c r="D36" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="94" t="s">
+      <c r="E36" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="94" t="s">
+      <c r="F36" s="136" t="s">
         <v>132</v>
       </c>
-      <c r="G36" s="119"/>
+      <c r="G36" s="138"/>
       <c r="H36" s="41" t="s">
         <v>86</v>
       </c>
@@ -21888,14 +21931,14 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="124"/>
-      <c r="B37" s="125"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="120"/>
+    <row r="37" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="132"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="139"/>
       <c r="H37" s="38" t="s">
         <v>85</v>
       </c>
@@ -21909,24 +21952,24 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="96" x14ac:dyDescent="0.25">
-      <c r="A38" s="123">
+    <row r="38" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="128">
         <v>23</v>
       </c>
-      <c r="B38" s="103" t="s">
+      <c r="B38" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="111"/>
-      <c r="D38" s="105" t="s">
+      <c r="C38" s="106"/>
+      <c r="D38" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="94" t="s">
+      <c r="E38" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="94" t="s">
+      <c r="F38" s="136" t="s">
         <v>132</v>
       </c>
-      <c r="G38" s="119"/>
+      <c r="G38" s="138"/>
       <c r="H38" s="39" t="s">
         <v>87</v>
       </c>
@@ -21940,14 +21983,14 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="128"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="120"/>
+    <row r="39" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="129"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="139"/>
       <c r="H39" s="40" t="s">
         <v>72</v>
       </c>
@@ -21961,21 +22004,21 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="96" x14ac:dyDescent="0.25">
-      <c r="A40" s="123">
+    <row r="40" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="128">
         <v>24</v>
       </c>
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="107"/>
-      <c r="D40" s="105" t="s">
+      <c r="C40" s="124"/>
+      <c r="D40" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="94" t="s">
+      <c r="E40" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="F40" s="94" t="s">
+      <c r="F40" s="136" t="s">
         <v>132</v>
       </c>
       <c r="G40" s="24"/>
@@ -21992,13 +22035,13 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="128"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
+    <row r="41" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="129"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
       <c r="G41" s="26"/>
       <c r="H41" s="36" t="s">
         <v>72</v>
@@ -22013,125 +22056,211 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11">
         <v>23</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="167" t="s">
         <v>166</v>
       </c>
       <c r="G42" s="23"/>
     </row>
-    <row r="43" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11">
         <v>24</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="G43" s="118"/>
+      <c r="G43" s="135"/>
     </row>
-    <row r="44" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
         <v>25</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="167" t="s">
         <v>168</v>
       </c>
-      <c r="G44" s="118"/>
+      <c r="G44" s="135"/>
     </row>
-    <row r="45" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>26</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="167" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11">
         <v>27</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="167" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11">
         <v>28</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="167" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11">
         <v>29</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="167" t="s">
         <v>171</v>
       </c>
       <c r="K48" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11">
         <v>30</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="167" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="165" t="s">
+    <row r="50" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="B50" s="166"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="166"/>
-      <c r="E50" s="166"/>
-      <c r="F50" s="166"/>
-      <c r="G50" s="166"/>
-      <c r="H50" s="166"/>
-      <c r="I50" s="166"/>
-      <c r="J50" s="167"/>
-      <c r="K50" s="161"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="101"/>
+      <c r="K50" s="95"/>
     </row>
-    <row r="51" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>31</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="167" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
         <v>32</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="167" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11">
         <v>33</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="167" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11">
         <v>34</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="167" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A50:J50"/>
     <mergeCell ref="A3:A4"/>
@@ -22148,87 +22277,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22240,37 +22288,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F946AF-EA2C-4AD8-AAD4-A337D6559201}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A52" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="75.140625" customWidth="1"/>
-    <col min="4" max="6" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="75.109375" customWidth="1"/>
+    <col min="4" max="6" width="37.6640625" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="11" width="80.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.5546875" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="10" max="10" width="39.6640625" customWidth="1"/>
+    <col min="11" max="11" width="80.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="157" t="s">
+    <row r="1" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="159"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="149"/>
       <c r="J1" s="76"/>
     </row>
-    <row r="2" spans="1:11" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
@@ -22302,7 +22350,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74">
         <v>1</v>
       </c>
@@ -22328,28 +22376,28 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="146">
+    <row r="4" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="150">
         <v>2</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="141" t="s">
+      <c r="C4" s="152"/>
+      <c r="D4" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="141" t="s">
+      <c r="E4" s="156" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="141" t="s">
+      <c r="F4" s="156" t="s">
         <v>132</v>
       </c>
       <c r="G4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="134"/>
-      <c r="I4" s="152"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="154"/>
       <c r="J4" s="42" t="s">
         <v>100</v>
       </c>
@@ -22357,107 +22405,107 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="148"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
+    <row r="5" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="151"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
       <c r="G5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="135"/>
-      <c r="I5" s="154"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="155"/>
       <c r="J5" s="78" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="146">
+    <row r="6" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="150">
         <v>3</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="155"/>
-      <c r="D6" s="141" t="s">
+      <c r="C6" s="152"/>
+      <c r="D6" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="141" t="s">
+      <c r="E6" s="156" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="141" t="s">
+      <c r="F6" s="156" t="s">
         <v>132</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="134"/>
-      <c r="I6" s="152"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="154"/>
       <c r="J6" s="42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="148"/>
-      <c r="B7" s="148"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
+    <row r="7" spans="1:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="151"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
       <c r="G7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="135"/>
-      <c r="I7" s="154"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="155"/>
       <c r="J7" s="78" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="146">
+    <row r="8" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="150">
         <v>4</v>
       </c>
-      <c r="B8" s="146" t="s">
+      <c r="B8" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="155"/>
-      <c r="D8" s="141" t="s">
+      <c r="C8" s="152"/>
+      <c r="D8" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="141" t="s">
+      <c r="E8" s="156" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="141" t="s">
+      <c r="F8" s="156" t="s">
         <v>132</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="134"/>
-      <c r="I8" s="152"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="154"/>
       <c r="J8" s="42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="148"/>
-      <c r="B9" s="148"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
+    <row r="9" spans="1:11" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="151"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
       <c r="G9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="135"/>
-      <c r="I9" s="154"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="155"/>
       <c r="J9" s="78" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="74">
         <v>5</v>
       </c>
@@ -22490,7 +22538,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="74">
         <v>6</v>
       </c>
@@ -22516,7 +22564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="74">
         <v>7</v>
       </c>
@@ -22546,7 +22594,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="74">
         <v>8</v>
       </c>
@@ -22572,7 +22620,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="74">
         <v>9</v>
       </c>
@@ -22603,7 +22651,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="74">
         <v>10</v>
       </c>
@@ -22629,172 +22677,172 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="146">
+    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="150">
         <v>11</v>
       </c>
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="143" t="s">
+      <c r="C16" s="108"/>
+      <c r="D16" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="143" t="s">
+      <c r="E16" s="159" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="143" t="s">
+      <c r="F16" s="159" t="s">
         <v>132</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>36</v>
       </c>
       <c r="H16" s="18"/>
-      <c r="I16" s="152" t="s">
+      <c r="I16" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="J16" s="134" t="s">
+      <c r="J16" s="116" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="147"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
+    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A17" s="158"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
       <c r="G17" s="18" t="s">
         <v>37</v>
       </c>
       <c r="H17" s="18"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="140"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="166"/>
     </row>
-    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="147"/>
-      <c r="B18" s="147"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
+    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="158"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
       <c r="G18" s="18" t="s">
         <v>38</v>
       </c>
       <c r="H18" s="18"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="140"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="166"/>
       <c r="K18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A19" s="147"/>
-      <c r="B19" s="147"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
+    <row r="19" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A19" s="158"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
       <c r="G19" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="18"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="140"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="166"/>
     </row>
-    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="147"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
+    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A20" s="158"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="140"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="166"/>
     </row>
-    <row r="21" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="148"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
+    <row r="21" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="151"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="135"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="117"/>
     </row>
-    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="146">
+    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="150">
         <v>12</v>
       </c>
-      <c r="B22" s="146" t="s">
+      <c r="B22" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="96" t="s">
+      <c r="C22" s="163"/>
+      <c r="D22" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="96" t="s">
+      <c r="E22" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="96" t="s">
+      <c r="F22" s="114" t="s">
         <v>132</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>36</v>
       </c>
       <c r="H22" s="79"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="134" t="s">
+      <c r="I22" s="154"/>
+      <c r="J22" s="116" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="147"/>
-      <c r="B23" s="147"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
+    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A23" s="158"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
       <c r="G23" s="18" t="s">
         <v>37</v>
       </c>
       <c r="H23" s="18"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="140"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="166"/>
     </row>
-    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="147"/>
-      <c r="B24" s="147"/>
-      <c r="C24" s="150"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
+    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A24" s="158"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
       <c r="G24" s="18" t="s">
         <v>38</v>
       </c>
       <c r="H24" s="80"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="140"/>
+      <c r="I24" s="162"/>
+      <c r="J24" s="166"/>
     </row>
-    <row r="25" spans="1:11" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="148"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="98"/>
+    <row r="25" spans="1:11" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="151"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="140"/>
       <c r="G25" s="18" t="s">
         <v>41</v>
       </c>
       <c r="H25" s="81"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="135"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="117"/>
     </row>
-    <row r="26" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="105.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="74">
         <v>13</v>
       </c>
@@ -22820,7 +22868,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="74">
         <v>14</v>
       </c>
@@ -22853,7 +22901,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="74">
         <v>15</v>
       </c>
@@ -22886,54 +22934,54 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="146">
+    <row r="29" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="150">
         <v>16</v>
       </c>
-      <c r="B29" s="146" t="s">
+      <c r="B29" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="126"/>
-      <c r="D29" s="143" t="s">
+      <c r="C29" s="108"/>
+      <c r="D29" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="143" t="s">
+      <c r="E29" s="159" t="s">
         <v>139</v>
       </c>
-      <c r="F29" s="143" t="s">
+      <c r="F29" s="159" t="s">
         <v>132</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="134" t="s">
+      <c r="H29" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="152" t="s">
+      <c r="I29" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="134" t="s">
+      <c r="J29" s="116" t="s">
         <v>100</v>
       </c>
       <c r="K29" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="148"/>
-      <c r="B30" s="148"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
+    <row r="30" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="151"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
       <c r="G30" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="135"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="135"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="117"/>
     </row>
-    <row r="31" spans="1:11" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="74">
         <v>17</v>
       </c>
@@ -22963,7 +23011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="74">
         <v>18</v>
       </c>
@@ -22993,7 +23041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="74">
         <v>19</v>
       </c>
@@ -23026,7 +23074,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="74">
         <v>20</v>
       </c>
@@ -23059,53 +23107,18 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K39" t="s">
         <v>159</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E29:E30"/>
     <mergeCell ref="J16:J21"/>
     <mergeCell ref="J22:J25"/>
     <mergeCell ref="J29:J30"/>
@@ -23121,6 +23134,41 @@
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
